--- a/market.xlsx
+++ b/market.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User.000\Documents\GitHub\hw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" calcMode="autoNoTable"/>
 </workbook>
 </file>
 
@@ -338,25 +338,25 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-8.8706609202484188E-2</c:v>
+                  <c:v>-6.8017441021700931E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.14112907124430318</c:v>
+                  <c:v>-0.10936588885953324</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.15912635523988694</c:v>
+                  <c:v>-0.10067333952083291</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.771670278143548E-2</c:v>
+                  <c:v>-5.4952685559697012E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.18628134278484587</c:v>
+                  <c:v>-0.13777620074544739</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.5189464100997805E-2</c:v>
+                  <c:v>-7.0237427768011229E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.1854673878581754</c:v>
+                  <c:v>-0.13793916948979679</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,25 +480,25 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5.093131457840494E-2</c:v>
+                  <c:v>2.2703089337490212E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4269042096266817E-2</c:v>
+                  <c:v>3.6982466929260438E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9748912957019202E-2</c:v>
+                  <c:v>6.951457222943791E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5281819665558221E-2</c:v>
+                  <c:v>2.9333187056346244E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1759885784813822E-2</c:v>
+                  <c:v>5.9609229319383061E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3402350807884051E-2</c:v>
+                  <c:v>5.3546495641647596E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.8257877658664756E-2</c:v>
+                  <c:v>5.8350295199847801E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +514,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="629908256"/>
-        <c:axId val="629907472"/>
+        <c:axId val="39499984"/>
+        <c:axId val="39497632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="629908256"/>
+        <c:axId val="39499984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +561,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629907472"/>
+        <c:crossAx val="39497632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="629907472"/>
+        <c:axId val="39497632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +606,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="629908256"/>
+        <c:crossAx val="39499984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q109"/>
+  <dimension ref="A1:Q130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="V5" sqref="V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1619,13 +1619,13 @@
         <v>43830</v>
       </c>
       <c r="B2">
-        <v>79.25</v>
+        <v>78.585159301757812</v>
       </c>
       <c r="C2">
-        <v>69.44000244140625</v>
+        <v>68.468070983886719</v>
       </c>
       <c r="D2">
-        <v>44.869998931884773</v>
+        <v>44.611152648925781</v>
       </c>
       <c r="E2">
         <v>3230.780029296875</v>
@@ -1643,26 +1643,26 @@
         <v>14</v>
       </c>
       <c r="K2" s="5">
-        <f t="array" ref="K2:Q2">$B$109:$H$109 / $B$2:$H$2 - 1</f>
-        <v>-8.8706609202484188E-2</v>
+        <f t="array" ref="K2:Q2">$B$130:$H$130 / $B$2:$H$2 - 1</f>
+        <v>-6.8017441021700931E-2</v>
       </c>
       <c r="L2" s="5">
-        <v>-0.14112907124430318</v>
+        <v>-0.10936588885953324</v>
       </c>
       <c r="M2" s="5">
-        <v>-0.15912635523988694</v>
+        <v>-0.10067333952083291</v>
       </c>
       <c r="N2" s="5">
-        <v>-5.771670278143548E-2</v>
+        <v>-5.4952685559697012E-2</v>
       </c>
       <c r="O2" s="5">
-        <v>-0.18628134278484587</v>
+        <v>-0.13777620074544739</v>
       </c>
       <c r="P2" s="5">
-        <v>-7.5189464100997805E-2</v>
+        <v>-7.0237427768011229E-2</v>
       </c>
       <c r="Q2" s="5">
-        <v>-0.1854673878581754</v>
+        <v>-0.13793916948979679</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1670,13 +1670,13 @@
         <v>43832</v>
       </c>
       <c r="B3">
-        <v>80.069999694824219</v>
+        <v>79.398284912109375</v>
       </c>
       <c r="C3">
-        <v>70.139999389648437</v>
+        <v>69.158271789550781</v>
       </c>
       <c r="D3">
-        <v>45.779998779296882</v>
+        <v>45.515903472900391</v>
       </c>
       <c r="E3">
         <v>3257.85009765625</v>
@@ -1694,26 +1694,26 @@
         <v>15</v>
       </c>
       <c r="K3" s="5">
-        <f t="array" ref="K3:Q3">$B$109:$H$109 / $B$88:$H$88 - 1</f>
-        <v>5.093131457840494E-2</v>
+        <f t="array" ref="K3:Q3">$B$130:$H$130 / $B$109:$H$109 - 1</f>
+        <v>2.2703089337490212E-2</v>
       </c>
       <c r="L3" s="5">
-        <v>5.4269042096266817E-2</v>
+        <v>3.6982466929260438E-2</v>
       </c>
       <c r="M3" s="5">
-        <v>2.9748912957019202E-2</v>
+        <v>6.951457222943791E-2</v>
       </c>
       <c r="N3" s="5">
-        <v>4.5281819665558221E-2</v>
+        <v>2.9333187056346244E-3</v>
       </c>
       <c r="O3" s="5">
-        <v>4.1759885784813822E-2</v>
+        <v>5.9609229319383061E-2</v>
       </c>
       <c r="P3" s="5">
-        <v>8.3402350807884051E-2</v>
+        <v>5.3546495641647596E-3</v>
       </c>
       <c r="Q3" s="5">
-        <v>-6.8257877658664756E-2</v>
+        <v>5.8350295199847801E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,13 +1721,13 @@
         <v>43833</v>
       </c>
       <c r="B4">
-        <v>79.379997253417969</v>
+        <v>78.714065551757813</v>
       </c>
       <c r="C4">
-        <v>69.269996643066406</v>
+        <v>68.300445556640625</v>
       </c>
       <c r="D4">
-        <v>44.930000305175781</v>
+        <v>44.670810699462891</v>
       </c>
       <c r="E4">
         <v>3234.85009765625</v>
@@ -1747,13 +1747,13 @@
         <v>43836</v>
       </c>
       <c r="B5">
-        <v>79.55999755859375</v>
+        <v>78.892562866210937</v>
       </c>
       <c r="C5">
-        <v>69.540000915527344</v>
+        <v>68.566665649414063</v>
       </c>
       <c r="D5">
-        <v>44.819999694824219</v>
+        <v>44.561443328857422</v>
       </c>
       <c r="E5">
         <v>3246.280029296875</v>
@@ -1773,13 +1773,13 @@
         <v>43837</v>
       </c>
       <c r="B6">
-        <v>79.360000610351563</v>
+        <v>78.694236755371094</v>
       </c>
       <c r="C6">
-        <v>69.349998474121094</v>
+        <v>68.379325866699219</v>
       </c>
       <c r="D6">
-        <v>44.790000915527337</v>
+        <v>44.5316162109375</v>
       </c>
       <c r="E6">
         <v>3237.179931640625</v>
@@ -1799,13 +1799,13 @@
         <v>43838</v>
       </c>
       <c r="B7">
-        <v>79.75</v>
+        <v>79.080970764160156</v>
       </c>
       <c r="C7">
-        <v>69.550003051757813</v>
+        <v>68.576530456542969</v>
       </c>
       <c r="D7">
-        <v>45.049999237060547</v>
+        <v>44.790115356445313</v>
       </c>
       <c r="E7">
         <v>3253.050048828125</v>
@@ -1825,13 +1825,13 @@
         <v>43839</v>
       </c>
       <c r="B8">
-        <v>80.199996948242188</v>
+        <v>79.527191162109375</v>
       </c>
       <c r="C8">
-        <v>69.709999084472656</v>
+        <v>68.734291076660156</v>
       </c>
       <c r="D8">
-        <v>45.349998474121087</v>
+        <v>45.088382720947273</v>
       </c>
       <c r="E8">
         <v>3274.699951171875</v>
@@ -1851,13 +1851,13 @@
         <v>43840</v>
       </c>
       <c r="B9">
-        <v>80.019996643066406</v>
+        <v>79.348701477050781</v>
       </c>
       <c r="C9">
-        <v>69.449996948242188</v>
+        <v>68.477928161621094</v>
       </c>
       <c r="D9">
-        <v>45.590000152587891</v>
+        <v>45.327003479003913</v>
       </c>
       <c r="E9">
         <v>3265.35009765625</v>
@@ -1877,13 +1877,13 @@
         <v>43843</v>
       </c>
       <c r="B10">
-        <v>80.620002746582031</v>
+        <v>79.943672180175781</v>
       </c>
       <c r="C10">
-        <v>69.80999755859375</v>
+        <v>68.8328857421875</v>
       </c>
       <c r="D10">
-        <v>46.299999237060547</v>
+        <v>46.032905578613281</v>
       </c>
       <c r="E10">
         <v>3288.1298828125</v>
@@ -1903,13 +1903,13 @@
         <v>43844</v>
       </c>
       <c r="B11">
-        <v>80.550003051757813</v>
+        <v>79.874259948730469</v>
       </c>
       <c r="C11">
-        <v>69.879997253417969</v>
+        <v>68.901908874511719</v>
       </c>
       <c r="D11">
-        <v>46.040000915527337</v>
+        <v>45.774406433105469</v>
       </c>
       <c r="E11">
         <v>3283.14990234375</v>
@@ -1929,13 +1929,13 @@
         <v>43845</v>
       </c>
       <c r="B12">
-        <v>80.5</v>
+        <v>79.824676513671875</v>
       </c>
       <c r="C12">
-        <v>69.879997253417969</v>
+        <v>68.901908874511719</v>
       </c>
       <c r="D12">
-        <v>45.680000305175781</v>
+        <v>45.416481018066413</v>
       </c>
       <c r="E12">
         <v>3289.2900390625</v>
@@ -1955,13 +1955,13 @@
         <v>43846</v>
       </c>
       <c r="B13">
-        <v>81.089996337890625</v>
+        <v>80.409721374511719</v>
       </c>
       <c r="C13">
-        <v>70.169998168945313</v>
+        <v>69.187850952148438</v>
       </c>
       <c r="D13">
-        <v>45.970001220703118</v>
+        <v>45.704811096191413</v>
       </c>
       <c r="E13">
         <v>3316.81005859375</v>
@@ -1981,13 +1981,13 @@
         <v>43847</v>
       </c>
       <c r="B14">
-        <v>81.30999755859375</v>
+        <v>80.627876281738281</v>
       </c>
       <c r="C14">
-        <v>70.379997253417969</v>
+        <v>69.394905090332031</v>
       </c>
       <c r="D14">
-        <v>46.229999542236328</v>
+        <v>45.963310241699219</v>
       </c>
       <c r="E14">
         <v>3329.6201171875</v>
@@ -2007,13 +2007,13 @@
         <v>43850</v>
       </c>
       <c r="B15">
-        <v>81.30999755859375</v>
+        <v>80.627876281738281</v>
       </c>
       <c r="C15">
-        <v>70.379997253417969</v>
+        <v>69.394905090332031</v>
       </c>
       <c r="D15">
-        <v>46.229999542236328</v>
+        <v>45.963310241699219</v>
       </c>
       <c r="E15">
         <v>3329.6201171875</v>
@@ -2033,13 +2033,13 @@
         <v>43851</v>
       </c>
       <c r="B16">
-        <v>80.870002746582031</v>
+        <v>80.191574096679688</v>
       </c>
       <c r="C16">
-        <v>69.819999694824219</v>
+        <v>68.842750549316406</v>
       </c>
       <c r="D16">
-        <v>45.060001373291023</v>
+        <v>44.800060272216797</v>
       </c>
       <c r="E16">
         <v>3320.7900390625</v>
@@ -2059,13 +2059,13 @@
         <v>43852</v>
       </c>
       <c r="B17">
-        <v>80.930000305175781</v>
+        <v>80.251068115234375</v>
       </c>
       <c r="C17">
-        <v>69.959999084472656</v>
+        <v>68.980789184570313</v>
       </c>
       <c r="D17">
-        <v>45.430000305175781</v>
+        <v>45.167922973632813</v>
       </c>
       <c r="E17">
         <v>3321.75</v>
@@ -2085,13 +2085,13 @@
         <v>43853</v>
       </c>
       <c r="B18">
-        <v>80.94000244140625</v>
+        <v>80.260986328125</v>
       </c>
       <c r="C18">
-        <v>69.790000915527344</v>
+        <v>68.81317138671875</v>
       </c>
       <c r="D18">
-        <v>44.959999084472663</v>
+        <v>44.700634002685547</v>
       </c>
       <c r="E18">
         <v>3325.5400390625</v>
@@ -2111,13 +2111,13 @@
         <v>43854</v>
       </c>
       <c r="B19">
-        <v>80.269996643066406</v>
+        <v>79.596603393554688</v>
       </c>
       <c r="C19">
-        <v>69.489997863769531</v>
+        <v>68.517364501953125</v>
       </c>
       <c r="D19">
-        <v>44.599998474121087</v>
+        <v>44.34271240234375</v>
       </c>
       <c r="E19">
         <v>3295.469970703125</v>
@@ -2137,13 +2137,13 @@
         <v>43857</v>
       </c>
       <c r="B20">
-        <v>78.779998779296875</v>
+        <v>78.119102478027344</v>
       </c>
       <c r="C20">
-        <v>68.050003051757813</v>
+        <v>67.097526550292969</v>
       </c>
       <c r="D20">
-        <v>43.060001373291023</v>
+        <v>42.811599731445313</v>
       </c>
       <c r="E20">
         <v>3243.6298828125</v>
@@ -2163,13 +2163,13 @@
         <v>43858</v>
       </c>
       <c r="B21">
-        <v>79.519996643066406</v>
+        <v>78.852897644042969</v>
       </c>
       <c r="C21">
-        <v>68.69000244140625</v>
+        <v>67.728569030761719</v>
       </c>
       <c r="D21">
-        <v>43.419998168945313</v>
+        <v>43.169517517089837</v>
       </c>
       <c r="E21">
         <v>3276.239990234375</v>
@@ -2189,13 +2189,13 @@
         <v>43859</v>
       </c>
       <c r="B22">
-        <v>79.510002136230469</v>
+        <v>78.842987060546875</v>
       </c>
       <c r="C22">
-        <v>68.699996948242188</v>
+        <v>67.738418579101563</v>
       </c>
       <c r="D22">
-        <v>43.630001068115227</v>
+        <v>43.378311157226562</v>
       </c>
       <c r="E22">
         <v>3273.39990234375</v>
@@ -2215,13 +2215,13 @@
         <v>43860</v>
       </c>
       <c r="B23">
-        <v>79.510002136230469</v>
+        <v>78.842987060546875</v>
       </c>
       <c r="C23">
-        <v>68.639999389648438</v>
+        <v>67.679267883300781</v>
       </c>
       <c r="D23">
-        <v>42.979999542236328</v>
+        <v>42.7320556640625</v>
       </c>
       <c r="E23">
         <v>3283.659912109375</v>
@@ -2241,13 +2241,13 @@
         <v>43861</v>
       </c>
       <c r="B24">
-        <v>78.110000610351563</v>
+        <v>77.454727172851563</v>
       </c>
       <c r="C24">
-        <v>67.480003356933594</v>
+        <v>66.535507202148438</v>
       </c>
       <c r="D24">
-        <v>42.110000610351563</v>
+        <v>41.867076873779297</v>
       </c>
       <c r="E24">
         <v>3225.52001953125</v>
@@ -2267,13 +2267,13 @@
         <v>43864</v>
       </c>
       <c r="B25">
-        <v>78.639999389648437</v>
+        <v>77.980278015136719</v>
       </c>
       <c r="C25">
-        <v>67.639999389648438</v>
+        <v>66.693260192871094</v>
       </c>
       <c r="D25">
-        <v>42.580001831054687</v>
+        <v>42.334365844726563</v>
       </c>
       <c r="E25">
         <v>3248.919921875</v>
@@ -2293,13 +2293,13 @@
         <v>43865</v>
       </c>
       <c r="B26">
-        <v>79.989997863769531</v>
+        <v>79.318954467773438</v>
       </c>
       <c r="C26">
-        <v>68.769996643066406</v>
+        <v>67.807441711425781</v>
       </c>
       <c r="D26">
-        <v>43.680000305175781</v>
+        <v>43.428020477294922</v>
       </c>
       <c r="E26">
         <v>3297.590087890625</v>
@@ -2319,13 +2319,13 @@
         <v>43866</v>
       </c>
       <c r="B27">
-        <v>80.75</v>
+        <v>80.072578430175781</v>
       </c>
       <c r="C27">
-        <v>69.430000305175781</v>
+        <v>68.458206176757812</v>
       </c>
       <c r="D27">
-        <v>43.930000305175781</v>
+        <v>43.676578521728523</v>
       </c>
       <c r="E27">
         <v>3334.68994140625</v>
@@ -2345,13 +2345,13 @@
         <v>43867</v>
       </c>
       <c r="B28">
-        <v>80.910003662109375</v>
+        <v>80.231239318847656</v>
       </c>
       <c r="C28">
-        <v>69.620002746582031</v>
+        <v>68.645553588867188</v>
       </c>
       <c r="D28">
-        <v>43.970001220703118</v>
+        <v>43.716346740722663</v>
       </c>
       <c r="E28">
         <v>3345.780029296875</v>
@@ -2371,13 +2371,13 @@
         <v>43868</v>
       </c>
       <c r="B29">
-        <v>80.379997253417969</v>
+        <v>79.705680847167969</v>
       </c>
       <c r="C29">
-        <v>68.959999084472656</v>
+        <v>67.994781494140625</v>
       </c>
       <c r="D29">
-        <v>43.360000610351562</v>
+        <v>43.109867095947273</v>
       </c>
       <c r="E29">
         <v>3327.7099609375</v>
@@ -2397,13 +2397,13 @@
         <v>43871</v>
       </c>
       <c r="B30">
-        <v>80.779998779296875</v>
+        <v>80.102325439453125</v>
       </c>
       <c r="C30">
-        <v>69.099998474121094</v>
+        <v>68.132827758789063</v>
       </c>
       <c r="D30">
-        <v>43.599998474121087</v>
+        <v>43.348480224609382</v>
       </c>
       <c r="E30">
         <v>3352.090087890625</v>
@@ -2423,13 +2423,13 @@
         <v>43872</v>
       </c>
       <c r="B31">
-        <v>81.19000244140625</v>
+        <v>80.508888244628906</v>
       </c>
       <c r="C31">
-        <v>69.569999694824219</v>
+        <v>68.596244812011719</v>
       </c>
       <c r="D31">
-        <v>44.169998168945313</v>
+        <v>43.915191650390618</v>
       </c>
       <c r="E31">
         <v>3357.75</v>
@@ -2449,13 +2449,13 @@
         <v>43873</v>
       </c>
       <c r="B32">
-        <v>81.730003356933594</v>
+        <v>81.044357299804688</v>
       </c>
       <c r="C32">
-        <v>69.80999755859375</v>
+        <v>68.8328857421875</v>
       </c>
       <c r="D32">
-        <v>44.770000457763672</v>
+        <v>44.511734008789063</v>
       </c>
       <c r="E32">
         <v>3379.449951171875</v>
@@ -2475,13 +2475,13 @@
         <v>43874</v>
       </c>
       <c r="B33">
-        <v>81.360000610351563</v>
+        <v>80.677459716796875</v>
       </c>
       <c r="C33">
-        <v>69.319999694824219</v>
+        <v>68.349746704101562</v>
       </c>
       <c r="D33">
-        <v>44.180000305175781</v>
+        <v>43.925136566162109</v>
       </c>
       <c r="E33">
         <v>3373.93994140625</v>
@@ -2501,13 +2501,13 @@
         <v>43875</v>
       </c>
       <c r="B34">
-        <v>81.44000244140625</v>
+        <v>80.756790161132813</v>
       </c>
       <c r="C34">
-        <v>69.199996948242188</v>
+        <v>68.231422424316406</v>
       </c>
       <c r="D34">
-        <v>44.200000762939453</v>
+        <v>43.945022583007813</v>
       </c>
       <c r="E34">
         <v>3380.159912109375</v>
@@ -2527,13 +2527,13 @@
         <v>43878</v>
       </c>
       <c r="B35">
-        <v>81.44000244140625</v>
+        <v>80.756790161132813</v>
       </c>
       <c r="C35">
-        <v>69.199996948242188</v>
+        <v>68.231422424316406</v>
       </c>
       <c r="D35">
-        <v>44.200000762939453</v>
+        <v>43.945022583007813</v>
       </c>
       <c r="E35">
         <v>3380.159912109375</v>
@@ -2553,13 +2553,13 @@
         <v>43879</v>
       </c>
       <c r="B36">
-        <v>81.120002746582031</v>
+        <v>80.439476013183594</v>
       </c>
       <c r="C36">
-        <v>68.760002136230469</v>
+        <v>67.797584533691406</v>
       </c>
       <c r="D36">
-        <v>43.909999847412109</v>
+        <v>43.656692504882812</v>
       </c>
       <c r="E36">
         <v>3370.2900390625</v>
@@ -2579,13 +2579,13 @@
         <v>43880</v>
       </c>
       <c r="B37">
-        <v>81.459999084472656</v>
+        <v>80.776618957519531</v>
       </c>
       <c r="C37">
-        <v>68.989997863769531</v>
+        <v>68.024360656738281</v>
       </c>
       <c r="D37">
-        <v>44.229999542236328</v>
+        <v>43.974845886230469</v>
       </c>
       <c r="E37">
         <v>3386.14990234375</v>
@@ -2605,13 +2605,13 @@
         <v>43881</v>
       </c>
       <c r="B38">
-        <v>80.989997863769531</v>
+        <v>80.310562133789063</v>
       </c>
       <c r="C38">
-        <v>68.580001831054687</v>
+        <v>67.620109558105469</v>
       </c>
       <c r="D38">
-        <v>43.540000915527337</v>
+        <v>43.288829803466797</v>
       </c>
       <c r="E38">
         <v>3373.22998046875</v>
@@ -2631,13 +2631,13 @@
         <v>43882</v>
       </c>
       <c r="B39">
-        <v>80.360000610351563</v>
+        <v>79.68585205078125</v>
       </c>
       <c r="C39">
-        <v>68.260002136230469</v>
+        <v>67.304588317871094</v>
       </c>
       <c r="D39">
-        <v>43.290000915527337</v>
+        <v>43.040271759033203</v>
       </c>
       <c r="E39">
         <v>3337.75</v>
@@ -2657,13 +2657,13 @@
         <v>43885</v>
       </c>
       <c r="B40">
-        <v>77.599998474121094</v>
+        <v>76.949005126953125</v>
       </c>
       <c r="C40">
-        <v>65.529998779296875</v>
+        <v>64.61279296875</v>
       </c>
       <c r="D40">
-        <v>41.669998168945313</v>
+        <v>41.429615020751953</v>
       </c>
       <c r="E40">
         <v>3225.889892578125</v>
@@ -2683,13 +2683,13 @@
         <v>43886</v>
       </c>
       <c r="B41">
-        <v>75.610000610351563</v>
+        <v>74.975700378417969</v>
       </c>
       <c r="C41">
-        <v>64.449996948242187</v>
+        <v>63.547908782958977</v>
       </c>
       <c r="D41">
-        <v>41.340000152587891</v>
+        <v>41.101520538330078</v>
       </c>
       <c r="E41">
         <v>3128.2099609375</v>
@@ -2709,13 +2709,13 @@
         <v>43887</v>
       </c>
       <c r="B42">
-        <v>75.680000305175781</v>
+        <v>75.045112609863281</v>
       </c>
       <c r="C42">
-        <v>64.529998779296875</v>
+        <v>63.626789093017578</v>
       </c>
       <c r="D42">
-        <v>41.669998168945313</v>
+        <v>41.429615020751953</v>
       </c>
       <c r="E42">
         <v>3116.389892578125</v>
@@ -2735,13 +2735,13 @@
         <v>43888</v>
       </c>
       <c r="B43">
-        <v>73.029998779296875</v>
+        <v>72.417343139648438</v>
       </c>
       <c r="C43">
-        <v>62.619998931884773</v>
+        <v>61.743522644042969</v>
       </c>
       <c r="D43">
-        <v>40.669998168945313</v>
+        <v>40.435382843017578</v>
       </c>
       <c r="E43">
         <v>2978.760009765625</v>
@@ -2761,13 +2761,13 @@
         <v>43889</v>
       </c>
       <c r="B44">
-        <v>72.260002136230469</v>
+        <v>71.653800964355469</v>
       </c>
       <c r="C44">
-        <v>62.240001678466797</v>
+        <v>61.368846893310547</v>
       </c>
       <c r="D44">
-        <v>40.520000457763672</v>
+        <v>40.286251068115227</v>
       </c>
       <c r="E44">
         <v>2954.219970703125</v>
@@ -2787,13 +2787,13 @@
         <v>43892</v>
       </c>
       <c r="B45">
-        <v>74.650001525878906</v>
+        <v>74.023750305175781</v>
       </c>
       <c r="C45">
-        <v>63.040000915527337</v>
+        <v>62.157646179199219</v>
       </c>
       <c r="D45">
-        <v>41.400001525878913</v>
+        <v>41.161174774169922</v>
       </c>
       <c r="E45">
         <v>3090.22998046875</v>
@@ -2813,13 +2813,13 @@
         <v>43893</v>
       </c>
       <c r="B46">
-        <v>72.870002746582031</v>
+        <v>72.258689880371094</v>
       </c>
       <c r="C46">
-        <v>62.529998779296882</v>
+        <v>61.65478515625</v>
       </c>
       <c r="D46">
-        <v>41.119998931884773</v>
+        <v>40.882785797119141</v>
       </c>
       <c r="E46">
         <v>3003.3701171875</v>
@@ -2839,13 +2839,13 @@
         <v>43894</v>
       </c>
       <c r="B47">
-        <v>75.860000610351563</v>
+        <v>75.223602294921875</v>
       </c>
       <c r="C47">
-        <v>64.400001525878906</v>
+        <v>63.498611450195312</v>
       </c>
       <c r="D47">
-        <v>41.849998474121087</v>
+        <v>41.608573913574219</v>
       </c>
       <c r="E47">
         <v>3130.1201171875</v>
@@ -2865,13 +2865,13 @@
         <v>43895</v>
       </c>
       <c r="B48">
-        <v>73.540000915527344</v>
+        <v>72.923065185546875</v>
       </c>
       <c r="C48">
-        <v>62.689998626708977</v>
+        <v>61.812545776367188</v>
       </c>
       <c r="D48">
-        <v>40.970001220703118</v>
+        <v>40.733654022216797</v>
       </c>
       <c r="E48">
         <v>3023.93994140625</v>
@@ -2891,13 +2891,13 @@
         <v>43896</v>
       </c>
       <c r="B49">
-        <v>72.230003356933594</v>
+        <v>71.624053955078125</v>
       </c>
       <c r="C49">
-        <v>61.75</v>
+        <v>60.885704040527337</v>
       </c>
       <c r="D49">
-        <v>40.130001068115227</v>
+        <v>39.89849853515625</v>
       </c>
       <c r="E49">
         <v>2972.3701171875</v>
@@ -2917,13 +2917,13 @@
         <v>43899</v>
       </c>
       <c r="B50">
-        <v>66.790000915527344</v>
+        <v>66.229690551757813</v>
       </c>
       <c r="C50">
-        <v>56.959999084472663</v>
+        <v>56.162746429443359</v>
       </c>
       <c r="D50">
-        <v>37.389999389648437</v>
+        <v>37.174304962158203</v>
       </c>
       <c r="E50">
         <v>2746.56005859375</v>
@@ -2943,13 +2943,13 @@
         <v>43900</v>
       </c>
       <c r="B51">
-        <v>69.860000610351562</v>
+        <v>69.273933410644531</v>
       </c>
       <c r="C51">
-        <v>59.060001373291023</v>
+        <v>58.233356475830078</v>
       </c>
       <c r="D51">
-        <v>39.290000915527337</v>
+        <v>39.063346862792969</v>
       </c>
       <c r="E51">
         <v>2882.22998046875</v>
@@ -2969,13 +2969,13 @@
         <v>43901</v>
       </c>
       <c r="B52">
-        <v>66.25</v>
+        <v>65.694221496582031</v>
       </c>
       <c r="C52">
-        <v>56.049999237060547</v>
+        <v>55.265483856201172</v>
       </c>
       <c r="D52">
-        <v>37.459999084472663</v>
+        <v>37.243900299072273</v>
       </c>
       <c r="E52">
         <v>2741.3798828125</v>
@@ -2995,13 +2995,13 @@
         <v>43902</v>
       </c>
       <c r="B53">
-        <v>59.740001678466797</v>
+        <v>59.238834381103523</v>
       </c>
       <c r="C53">
-        <v>49.889999389648438</v>
+        <v>49.191703796386719</v>
       </c>
       <c r="D53">
-        <v>33.709999084472663</v>
+        <v>33.515533447265618</v>
       </c>
       <c r="E53">
         <v>2480.639892578125</v>
@@ -3021,13 +3021,13 @@
         <v>43903</v>
       </c>
       <c r="B54">
-        <v>64.019996643066406</v>
+        <v>63.482925415039063</v>
       </c>
       <c r="C54">
-        <v>52.909999847412109</v>
+        <v>52.16943359375</v>
       </c>
       <c r="D54">
-        <v>36.139999389648438</v>
+        <v>35.931514739990227</v>
       </c>
       <c r="E54">
         <v>2711.02001953125</v>
@@ -3047,13 +3047,13 @@
         <v>43906</v>
       </c>
       <c r="B55">
-        <v>56.840000152587891</v>
+        <v>56.363162994384773</v>
       </c>
       <c r="C55">
-        <v>47.450000762939453</v>
+        <v>46.785858154296882</v>
       </c>
       <c r="D55">
-        <v>31.629999160766602</v>
+        <v>31.44753265380859</v>
       </c>
       <c r="E55">
         <v>2386.1298828125</v>
@@ -3073,13 +3073,13 @@
         <v>43907</v>
       </c>
       <c r="B56">
-        <v>60.389999389648437</v>
+        <v>59.883380889892578</v>
       </c>
       <c r="C56">
-        <v>49.759998321533203</v>
+        <v>49.063522338867188</v>
       </c>
       <c r="D56">
-        <v>33.810001373291023</v>
+        <v>33.614959716796882</v>
       </c>
       <c r="E56">
         <v>2529.18994140625</v>
@@ -3099,13 +3099,13 @@
         <v>43908</v>
       </c>
       <c r="B57">
-        <v>56.759998321533203</v>
+        <v>56.283832550048828</v>
       </c>
       <c r="C57">
-        <v>46.909999847412109</v>
+        <v>46.253414154052727</v>
       </c>
       <c r="D57">
-        <v>30.889999389648441</v>
+        <v>30.711801528930661</v>
       </c>
       <c r="E57">
         <v>2398.10009765625</v>
@@ -3125,13 +3125,13 @@
         <v>43909</v>
       </c>
       <c r="B58">
-        <v>57.119998931884773</v>
+        <v>56.640811920166023</v>
       </c>
       <c r="C58">
-        <v>47.639999389648438</v>
+        <v>46.973194122314453</v>
       </c>
       <c r="D58">
-        <v>31.129999160766602</v>
+        <v>30.95041656494141</v>
       </c>
       <c r="E58">
         <v>2409.389892578125</v>
@@ -3151,13 +3151,13 @@
         <v>43910</v>
       </c>
       <c r="B59">
-        <v>55.310001373291023</v>
+        <v>54.846000671386719</v>
       </c>
       <c r="C59">
-        <v>47.049999237060547</v>
+        <v>46.391452789306641</v>
       </c>
       <c r="D59">
-        <v>31.360000610351559</v>
+        <v>31.179092407226559</v>
       </c>
       <c r="E59">
         <v>2304.919921875</v>
@@ -3177,13 +3177,13 @@
         <v>43913</v>
       </c>
       <c r="B60">
-        <v>54.330001831054687</v>
+        <v>53.874221801757812</v>
       </c>
       <c r="C60">
-        <v>46.5</v>
+        <v>45.849151611328118</v>
       </c>
       <c r="D60">
-        <v>30.610000610351559</v>
+        <v>30.433418273925781</v>
       </c>
       <c r="E60">
         <v>2237.39990234375</v>
@@ -3203,13 +3203,13 @@
         <v>43914</v>
       </c>
       <c r="B61">
-        <v>58.75</v>
+        <v>58.25714111328125</v>
       </c>
       <c r="C61">
-        <v>50.439998626708977</v>
+        <v>49.734004974365227</v>
       </c>
       <c r="D61">
-        <v>32.909999847412109</v>
+        <v>32.720149993896477</v>
       </c>
       <c r="E61">
         <v>2447.330078125</v>
@@ -3229,13 +3229,13 @@
         <v>43915</v>
       </c>
       <c r="B62">
-        <v>60.360000610351563</v>
+        <v>59.853633880615227</v>
       </c>
       <c r="C62">
-        <v>52.080001831054687</v>
+        <v>51.351051330566413</v>
       </c>
       <c r="D62">
-        <v>34.069999694824219</v>
+        <v>33.873458862304688</v>
       </c>
       <c r="E62">
         <v>2475.56005859375</v>
@@ -3255,13 +3255,13 @@
         <v>43916</v>
       </c>
       <c r="B63">
-        <v>63.540000915527337</v>
+        <v>63.0069580078125</v>
       </c>
       <c r="C63">
-        <v>54.409999847412109</v>
+        <v>53.6484375</v>
       </c>
       <c r="D63">
-        <v>35.360000610351563</v>
+        <v>35.156017303466797</v>
       </c>
       <c r="E63">
         <v>2630.070068359375</v>
@@ -3281,13 +3281,13 @@
         <v>43917</v>
       </c>
       <c r="B64">
-        <v>61.680000305175781</v>
+        <v>61.162559509277337</v>
       </c>
       <c r="C64">
-        <v>52.860000610351562</v>
+        <v>52.120132446289062</v>
       </c>
       <c r="D64">
-        <v>33.349998474121087</v>
+        <v>33.157608032226563</v>
       </c>
       <c r="E64">
         <v>2541.469970703125</v>
@@ -3307,13 +3307,13 @@
         <v>43920</v>
       </c>
       <c r="B65">
-        <v>63.040000915527337</v>
+        <v>62.511150360107422</v>
       </c>
       <c r="C65">
-        <v>53.930000305175781</v>
+        <v>53.175155639648438</v>
       </c>
       <c r="D65">
-        <v>33.900001525878913</v>
+        <v>33.704441070556641</v>
       </c>
       <c r="E65">
         <v>2626.64990234375</v>
@@ -3333,13 +3333,13 @@
         <v>43921</v>
       </c>
       <c r="B66">
-        <v>62.569999694824219</v>
+        <v>62.045093536376953</v>
       </c>
       <c r="C66">
-        <v>53.459999084472663</v>
+        <v>52.711734771728523</v>
       </c>
       <c r="D66">
-        <v>34.130001068115227</v>
+        <v>33.933113098144531</v>
       </c>
       <c r="E66">
         <v>2584.590087890625</v>
@@ -3359,13 +3359,13 @@
         <v>43922</v>
       </c>
       <c r="B67">
-        <v>59.700000762939453</v>
+        <v>59.199169158935547</v>
       </c>
       <c r="C67">
-        <v>51.090000152587891</v>
+        <v>50.374908447265618</v>
       </c>
       <c r="D67">
-        <v>32.669998168945313</v>
+        <v>32.481533050537109</v>
       </c>
       <c r="E67">
         <v>2470.5</v>
@@ -3385,13 +3385,13 @@
         <v>43923</v>
       </c>
       <c r="B68">
-        <v>60.900001525878913</v>
+        <v>60.389102935791023</v>
       </c>
       <c r="C68">
-        <v>52.090000152587891</v>
+        <v>51.360912322998047</v>
       </c>
       <c r="D68">
-        <v>33.770000457763672</v>
+        <v>33.575187683105469</v>
       </c>
       <c r="E68">
         <v>2526.89990234375</v>
@@ -3411,13 +3411,13 @@
         <v>43924</v>
       </c>
       <c r="B69">
-        <v>59.990001678466797</v>
+        <v>59.486740112304688</v>
       </c>
       <c r="C69">
-        <v>50.900001525878913</v>
+        <v>50.187568664550781</v>
       </c>
       <c r="D69">
-        <v>33.130001068115227</v>
+        <v>32.938880920410163</v>
       </c>
       <c r="E69">
         <v>2488.64990234375</v>
@@ -3437,13 +3437,13 @@
         <v>43927</v>
       </c>
       <c r="B70">
-        <v>63.689998626708977</v>
+        <v>63.155696868896477</v>
       </c>
       <c r="C70">
-        <v>53.599998474121087</v>
+        <v>52.849773406982422</v>
       </c>
       <c r="D70">
-        <v>34.939998626708977</v>
+        <v>34.738437652587891</v>
       </c>
       <c r="E70">
         <v>2663.679931640625</v>
@@ -3463,13 +3463,13 @@
         <v>43928</v>
       </c>
       <c r="B71">
-        <v>63.759998321533203</v>
+        <v>63.225109100341797</v>
       </c>
       <c r="C71">
-        <v>53.900001525878913</v>
+        <v>53.145576477050781</v>
       </c>
       <c r="D71">
-        <v>35.119998931884773</v>
+        <v>34.917400360107422</v>
       </c>
       <c r="E71">
         <v>2659.409912109375</v>
@@ -3489,13 +3489,13 @@
         <v>43929</v>
       </c>
       <c r="B72">
-        <v>65.300003051757812</v>
+        <v>64.752197265625</v>
       </c>
       <c r="C72">
-        <v>54.340000152587891</v>
+        <v>53.579418182373047</v>
       </c>
       <c r="D72">
-        <v>35.479999542236328</v>
+        <v>35.275321960449219</v>
       </c>
       <c r="E72">
         <v>2749.97998046875</v>
@@ -3515,13 +3515,13 @@
         <v>43930</v>
       </c>
       <c r="B73">
-        <v>66.25</v>
+        <v>65.694221496582031</v>
       </c>
       <c r="C73">
-        <v>55.569999694824219</v>
+        <v>54.792201995849609</v>
       </c>
       <c r="D73">
-        <v>35.349998474121087</v>
+        <v>35.146072387695313</v>
       </c>
       <c r="E73">
         <v>2789.820068359375</v>
@@ -3541,13 +3541,13 @@
         <v>43931</v>
       </c>
       <c r="B74">
-        <v>66.25</v>
+        <v>65.694221496582031</v>
       </c>
       <c r="C74">
-        <v>55.569999694824219</v>
+        <v>54.792201995849609</v>
       </c>
       <c r="D74">
-        <v>35.349998474121087</v>
+        <v>35.146072387695313</v>
       </c>
       <c r="E74">
         <v>2789.820068359375</v>
@@ -3567,13 +3567,13 @@
         <v>43934</v>
       </c>
       <c r="B75">
-        <v>65.720001220703125</v>
+        <v>65.168670654296875</v>
       </c>
       <c r="C75">
-        <v>55.040000915527337</v>
+        <v>54.269622802734382</v>
       </c>
       <c r="D75">
-        <v>35.400001525878913</v>
+        <v>35.195785522460937</v>
       </c>
       <c r="E75">
         <v>2761.6298828125</v>
@@ -3593,13 +3593,13 @@
         <v>43935</v>
       </c>
       <c r="B76">
-        <v>67.410003662109375</v>
+        <v>66.844490051269531</v>
       </c>
       <c r="C76">
-        <v>56.020000457763672</v>
+        <v>55.235904693603523</v>
       </c>
       <c r="D76">
-        <v>36.209999084472663</v>
+        <v>36.001110076904297</v>
       </c>
       <c r="E76">
         <v>2846.06005859375</v>
@@ -3619,13 +3619,13 @@
         <v>43936</v>
       </c>
       <c r="B77">
-        <v>65.730003356933594</v>
+        <v>65.1785888671875</v>
       </c>
       <c r="C77">
-        <v>54.270000457763672</v>
+        <v>53.510398864746087</v>
       </c>
       <c r="D77">
-        <v>35.279998779296882</v>
+        <v>35.07647705078125</v>
       </c>
       <c r="E77">
         <v>2783.360107421875</v>
@@ -3645,13 +3645,13 @@
         <v>43937</v>
       </c>
       <c r="B78">
-        <v>66.010002136230469</v>
+        <v>65.45623779296875</v>
       </c>
       <c r="C78">
-        <v>54.299999237060547</v>
+        <v>53.53997802734375</v>
       </c>
       <c r="D78">
-        <v>35.470001220703118</v>
+        <v>35.265380859375</v>
       </c>
       <c r="E78">
         <v>2799.550048828125</v>
@@ -3671,13 +3671,13 @@
         <v>43938</v>
       </c>
       <c r="B79">
-        <v>67.80999755859375</v>
+        <v>67.241134643554688</v>
       </c>
       <c r="C79">
-        <v>55.740001678466797</v>
+        <v>54.959823608398438</v>
       </c>
       <c r="D79">
-        <v>36.259998321533203</v>
+        <v>36.050823211669922</v>
       </c>
       <c r="E79">
         <v>2874.56005859375</v>
@@ -3697,13 +3697,13 @@
         <v>43941</v>
       </c>
       <c r="B80">
-        <v>66.819999694824219</v>
+        <v>66.259437561035156</v>
       </c>
       <c r="C80">
-        <v>54.909999847412109</v>
+        <v>54.141441345214837</v>
       </c>
       <c r="D80">
-        <v>35.799999237060547</v>
+        <v>35.593475341796882</v>
       </c>
       <c r="E80">
         <v>2823.159912109375</v>
@@ -3723,13 +3723,13 @@
         <v>43942</v>
       </c>
       <c r="B81">
-        <v>64.769996643066406</v>
+        <v>64.226631164550781</v>
       </c>
       <c r="C81">
-        <v>53.840000152587891</v>
+        <v>53.086418151855469</v>
       </c>
       <c r="D81">
-        <v>34.810001373291023</v>
+        <v>34.60919189453125</v>
       </c>
       <c r="E81">
         <v>2736.56005859375</v>
@@ -3749,13 +3749,13 @@
         <v>43943</v>
       </c>
       <c r="B82">
-        <v>66.290000915527344</v>
+        <v>65.73388671875</v>
       </c>
       <c r="C82">
-        <v>54.75</v>
+        <v>53.983680725097663</v>
       </c>
       <c r="D82">
-        <v>35.759998321533203</v>
+        <v>35.553707122802727</v>
       </c>
       <c r="E82">
         <v>2799.31005859375</v>
@@ -3775,13 +3775,13 @@
         <v>43944</v>
       </c>
       <c r="B83">
-        <v>66.220001220703125</v>
+        <v>65.664474487304688</v>
       </c>
       <c r="C83">
-        <v>54.580001831054688</v>
+        <v>53.816059112548828</v>
       </c>
       <c r="D83">
-        <v>35.630001068115227</v>
+        <v>35.424461364746087</v>
       </c>
       <c r="E83">
         <v>2797.800048828125</v>
@@ -3801,13 +3801,13 @@
         <v>43945</v>
       </c>
       <c r="B84">
-        <v>66.900001525878906</v>
+        <v>66.338768005371094</v>
       </c>
       <c r="C84">
-        <v>55.209999084472663</v>
+        <v>54.437240600585938</v>
       </c>
       <c r="D84">
-        <v>35.580001831054688</v>
+        <v>35.374748229980469</v>
       </c>
       <c r="E84">
         <v>2836.739990234375</v>
@@ -3827,13 +3827,13 @@
         <v>43948</v>
       </c>
       <c r="B85">
-        <v>67.989997863769531</v>
+        <v>67.419624328613281</v>
       </c>
       <c r="C85">
-        <v>55.939998626708977</v>
+        <v>55.157020568847663</v>
       </c>
       <c r="D85">
-        <v>36.299999237060547</v>
+        <v>36.090591430664063</v>
       </c>
       <c r="E85">
         <v>2878.47998046875</v>
@@ -3853,13 +3853,13 @@
         <v>43949</v>
       </c>
       <c r="B86">
-        <v>68</v>
+        <v>67.429542541503906</v>
       </c>
       <c r="C86">
-        <v>56.360000610351563</v>
+        <v>55.571144104003913</v>
       </c>
       <c r="D86">
-        <v>36.369998931884773</v>
+        <v>36.160186767578118</v>
       </c>
       <c r="E86">
         <v>2863.389892578125</v>
@@ -3879,13 +3879,13 @@
         <v>43950</v>
       </c>
       <c r="B87">
-        <v>69.800003051757812</v>
+        <v>69.214439392089844</v>
       </c>
       <c r="C87">
-        <v>57.770000457763672</v>
+        <v>56.961410522460938</v>
       </c>
       <c r="D87">
-        <v>37.430000305175781</v>
+        <v>37.214073181152337</v>
       </c>
       <c r="E87">
         <v>2939.510009765625</v>
@@ -3901,17 +3901,17 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
+      <c r="A88" s="2">
         <v>43951</v>
       </c>
       <c r="B88">
-        <v>68.720001220703125</v>
+        <v>68.143501281738281</v>
       </c>
       <c r="C88">
-        <v>56.569999694824219</v>
+        <v>55.778205871582031</v>
       </c>
       <c r="D88">
-        <v>36.639999389648438</v>
+        <v>36.428630828857422</v>
       </c>
       <c r="E88">
         <v>2912.429931640625</v>
@@ -3927,17 +3927,17 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="3">
+      <c r="A89" s="2">
         <v>43952</v>
       </c>
       <c r="B89">
-        <v>66.910003662109375</v>
+        <v>66.348686218261719</v>
       </c>
       <c r="C89">
-        <v>55.340000152587891</v>
+        <v>54.565422058105469</v>
       </c>
       <c r="D89">
-        <v>35.319999694824219</v>
+        <v>35.116245269775391</v>
       </c>
       <c r="E89">
         <v>2830.7099609375</v>
@@ -3953,17 +3953,17 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
+      <c r="A90" s="2">
         <v>43955</v>
       </c>
       <c r="B90">
-        <v>67.129997253417969</v>
+        <v>66.56683349609375</v>
       </c>
       <c r="C90">
-        <v>55.319999694824219</v>
+        <v>54.545700073242187</v>
       </c>
       <c r="D90">
-        <v>35.700000762939453</v>
+        <v>35.494056701660163</v>
       </c>
       <c r="E90">
         <v>2842.739990234375</v>
@@ -3979,17 +3979,17 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
+      <c r="A91" s="2">
         <v>43956</v>
       </c>
       <c r="B91">
-        <v>67.599998474121094</v>
+        <v>67.03289794921875</v>
       </c>
       <c r="C91">
-        <v>55.419998168945313</v>
+        <v>54.644298553466797</v>
       </c>
       <c r="D91">
-        <v>35.900001525878913</v>
+        <v>35.692901611328118</v>
       </c>
       <c r="E91">
         <v>2868.43994140625</v>
@@ -4005,17 +4005,17 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
+      <c r="A92" s="2">
         <v>43957</v>
       </c>
       <c r="B92">
-        <v>67.239997863769531</v>
+        <v>66.675910949707031</v>
       </c>
       <c r="C92">
-        <v>55.060001373291023</v>
+        <v>54.289340972900391</v>
       </c>
       <c r="D92">
-        <v>35.790000915527337</v>
+        <v>35.583538055419922</v>
       </c>
       <c r="E92">
         <v>2848.419921875</v>
@@ -4031,17 +4031,17 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="A93" s="2">
         <v>43958</v>
       </c>
       <c r="B93">
-        <v>68.129997253417969</v>
+        <v>67.558448791503906</v>
       </c>
       <c r="C93">
-        <v>55.889999389648437</v>
+        <v>55.107723236083977</v>
       </c>
       <c r="D93">
-        <v>36.080001831054687</v>
+        <v>35.871864318847663</v>
       </c>
       <c r="E93">
         <v>2881.18994140625</v>
@@ -4057,17 +4057,17 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
+      <c r="A94" s="2">
         <v>43959</v>
       </c>
       <c r="B94">
-        <v>69.260002136230469</v>
+        <v>68.678970336914062</v>
       </c>
       <c r="C94">
-        <v>56.840000152587891</v>
+        <v>56.044425964355469</v>
       </c>
       <c r="D94">
-        <v>36.840000152587891</v>
+        <v>36.627479553222663</v>
       </c>
       <c r="E94">
         <v>2929.800048828125</v>
@@ -4083,17 +4083,17 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
+      <c r="A95" s="2">
         <v>43962</v>
       </c>
       <c r="B95">
-        <v>69.330001831054688</v>
+        <v>68.748382568359375</v>
       </c>
       <c r="C95">
-        <v>56.790000915527337</v>
+        <v>55.995128631591797</v>
       </c>
       <c r="D95">
-        <v>36.599998474121087</v>
+        <v>36.388862609863281</v>
       </c>
       <c r="E95">
         <v>2930.18994140625</v>
@@ -4109,17 +4109,17 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
+      <c r="A96" s="2">
         <v>43963</v>
       </c>
       <c r="B96">
-        <v>68.160003662109375</v>
+        <v>67.588203430175781</v>
       </c>
       <c r="C96">
-        <v>56.069999694824219</v>
+        <v>55.285202026367188</v>
       </c>
       <c r="D96">
-        <v>36.459999084472663</v>
+        <v>36.249668121337891</v>
       </c>
       <c r="E96">
         <v>2870.1201171875</v>
@@ -4135,17 +4135,17 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
+      <c r="A97" s="2">
         <v>43964</v>
       </c>
       <c r="B97">
-        <v>67.260002136230469</v>
+        <v>66.695747375488281</v>
       </c>
       <c r="C97">
-        <v>55.639999389648438</v>
+        <v>54.861221313476563</v>
       </c>
       <c r="D97">
-        <v>36.389999389648438</v>
+        <v>36.180072784423828</v>
       </c>
       <c r="E97">
         <v>2820</v>
@@ -4161,17 +4161,17 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
+      <c r="A98" s="2">
         <v>43965</v>
       </c>
       <c r="B98">
-        <v>67.680000305175781</v>
+        <v>67.112228393554688</v>
       </c>
       <c r="C98">
-        <v>55.110000610351562</v>
+        <v>54.338642120361328</v>
       </c>
       <c r="D98">
-        <v>36.529998779296882</v>
+        <v>36.319267272949219</v>
       </c>
       <c r="E98">
         <v>2852.5</v>
@@ -4187,17 +4187,17 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A99" s="3">
+      <c r="A99" s="2">
         <v>43966</v>
       </c>
       <c r="B99">
-        <v>67.739997863769531</v>
+        <v>67.171722412109375</v>
       </c>
       <c r="C99">
-        <v>55.159999847412109</v>
+        <v>54.387939453125</v>
       </c>
       <c r="D99">
-        <v>36.029998779296882</v>
+        <v>35.822151184082031</v>
       </c>
       <c r="E99">
         <v>2863.699951171875</v>
@@ -4213,17 +4213,17 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A100" s="3">
+      <c r="A100" s="2">
         <v>43969</v>
       </c>
       <c r="B100">
-        <v>70.040000915527344</v>
+        <v>69.452430725097656</v>
       </c>
       <c r="C100">
-        <v>57.389999389648438</v>
+        <v>56.586727142333977</v>
       </c>
       <c r="D100">
-        <v>37.439998626708977</v>
+        <v>37.224014282226562</v>
       </c>
       <c r="E100">
         <v>2953.909912109375</v>
@@ -4239,17 +4239,17 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="3">
+      <c r="A101" s="2">
         <v>43970</v>
       </c>
       <c r="B101">
-        <v>69.330001831054688</v>
+        <v>68.748382568359375</v>
       </c>
       <c r="C101">
-        <v>56.599998474121087</v>
+        <v>55.807785034179687</v>
       </c>
       <c r="D101">
-        <v>37.139999389648437</v>
+        <v>36.925746917724609</v>
       </c>
       <c r="E101">
         <v>2922.93994140625</v>
@@ -4265,17 +4265,17 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="3">
+      <c r="A102" s="2">
         <v>43971</v>
       </c>
       <c r="B102">
-        <v>70.489997863769531</v>
+        <v>69.898651123046875</v>
       </c>
       <c r="C102">
-        <v>57.779998779296882</v>
+        <v>56.971267700195312</v>
       </c>
       <c r="D102">
-        <v>37.630001068115227</v>
+        <v>37.412921905517578</v>
       </c>
       <c r="E102">
         <v>2971.610107421875</v>
@@ -4291,17 +4291,17 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="3">
+      <c r="A103" s="2">
         <v>43972</v>
       </c>
       <c r="B103">
-        <v>69.870002746582031</v>
+        <v>69.283851623535156</v>
       </c>
       <c r="C103">
-        <v>57.110000610351563</v>
+        <v>56.310646057128913</v>
       </c>
       <c r="D103">
-        <v>37.200000762939453</v>
+        <v>36.985401153564453</v>
       </c>
       <c r="E103">
         <v>2948.510009765625</v>
@@ -4317,17 +4317,17 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="3">
+      <c r="A104" s="2">
         <v>43973</v>
       </c>
       <c r="B104">
-        <v>69.790000915527344</v>
+        <v>69.204521179199219</v>
       </c>
       <c r="C104">
-        <v>56.950000762939453</v>
+        <v>56.152889251708977</v>
       </c>
       <c r="D104">
-        <v>36.430000305175781</v>
+        <v>36.219844818115227</v>
       </c>
       <c r="E104">
         <v>2955.449951171875</v>
@@ -4343,17 +4343,17 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="3">
+      <c r="A105" s="2">
         <v>43976</v>
       </c>
       <c r="B105">
-        <v>69.790000915527344</v>
+        <v>69.204521179199219</v>
       </c>
       <c r="C105">
-        <v>56.950000762939453</v>
+        <v>56.152889251708977</v>
       </c>
       <c r="D105">
-        <v>36.430000305175781</v>
+        <v>36.219844818115227</v>
       </c>
       <c r="E105">
         <v>2955.449951171875</v>
@@ -4369,17 +4369,17 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="3">
+      <c r="A106" s="2">
         <v>43977</v>
       </c>
       <c r="B106">
-        <v>71.099998474121094</v>
+        <v>70.503532409667969</v>
       </c>
       <c r="C106">
-        <v>58.580001831054688</v>
+        <v>57.760074615478523</v>
       </c>
       <c r="D106">
-        <v>37.229999542236328</v>
+        <v>37.015228271484382</v>
       </c>
       <c r="E106">
         <v>2991.77001953125</v>
@@ -4395,17 +4395,17 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3">
+      <c r="A107" s="2">
         <v>43978</v>
       </c>
       <c r="B107">
-        <v>71.989997863769531</v>
+        <v>71.386062622070312</v>
       </c>
       <c r="C107">
-        <v>59.290000915527337</v>
+        <v>58.460136413574219</v>
       </c>
       <c r="D107">
-        <v>37.349998474121087</v>
+        <v>37.134532928466797</v>
       </c>
       <c r="E107">
         <v>3036.1298828125</v>
@@ -4421,17 +4421,17 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="3">
+      <c r="A108" s="2">
         <v>43979</v>
       </c>
       <c r="B108">
-        <v>72.050003051757812</v>
+        <v>71.445564270019531</v>
       </c>
       <c r="C108">
-        <v>59.849998474121087</v>
+        <v>59.012294769287109</v>
       </c>
       <c r="D108">
-        <v>37.090000152587891</v>
+        <v>36.87603759765625</v>
       </c>
       <c r="E108">
         <v>3029.72998046875</v>
@@ -4447,17 +4447,17 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3">
+      <c r="A109" s="2">
         <v>43980</v>
       </c>
       <c r="B109">
-        <v>72.220001220703125</v>
+        <v>71.6141357421875</v>
       </c>
       <c r="C109">
-        <v>59.639999389648438</v>
+        <v>58.80523681640625</v>
       </c>
       <c r="D109">
-        <v>37.729999542236328</v>
+        <v>37.512344360351563</v>
       </c>
       <c r="E109">
         <v>3044.31005859375</v>
@@ -4470,6 +4470,552 @@
       </c>
       <c r="H109">
         <v>22961.470703125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>43983</v>
+      </c>
+      <c r="B110">
+        <v>72.526420593261719</v>
+      </c>
+      <c r="C110">
+        <v>60.116622924804688</v>
+      </c>
+      <c r="D110">
+        <v>38.377323150634773</v>
+      </c>
+      <c r="E110">
+        <v>3055.72998046875</v>
+      </c>
+      <c r="F110">
+        <v>3050.199951171875</v>
+      </c>
+      <c r="G110">
+        <v>22062.390625</v>
+      </c>
+      <c r="H110">
+        <v>23732.51953125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>43984</v>
+      </c>
+      <c r="B111">
+        <v>73.319709777832031</v>
+      </c>
+      <c r="C111">
+        <v>60.678642272949219</v>
+      </c>
+      <c r="D111">
+        <v>39.292018890380859</v>
+      </c>
+      <c r="E111">
+        <v>3080.820068359375</v>
+      </c>
+      <c r="F111">
+        <v>3159.02001953125</v>
+      </c>
+      <c r="G111">
+        <v>22325.609375</v>
+      </c>
+      <c r="H111">
+        <v>23995.939453125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>43985</v>
+      </c>
+      <c r="B112">
+        <v>74.519561767578125</v>
+      </c>
+      <c r="C112">
+        <v>62.128063201904297</v>
+      </c>
+      <c r="D112">
+        <v>40.206710815429688</v>
+      </c>
+      <c r="E112">
+        <v>3122.8701171875</v>
+      </c>
+      <c r="F112">
+        <v>3269.590087890625</v>
+      </c>
+      <c r="G112">
+        <v>22613.759765625</v>
+      </c>
+      <c r="H112">
+        <v>24325.619140625</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>43986</v>
+      </c>
+      <c r="B113">
+        <v>74.112998962402344</v>
+      </c>
+      <c r="C113">
+        <v>61.861846923828118</v>
+      </c>
+      <c r="D113">
+        <v>39.639999389648437</v>
+      </c>
+      <c r="E113">
+        <v>3112.35009765625</v>
+      </c>
+      <c r="F113">
+        <v>3261.669921875</v>
+      </c>
+      <c r="G113">
+        <v>22695.740234375</v>
+      </c>
+      <c r="H113">
+        <v>24366.30078125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>43987</v>
+      </c>
+      <c r="B114">
+        <v>75.808647155761719</v>
+      </c>
+      <c r="C114">
+        <v>62.926727294921882</v>
+      </c>
+      <c r="D114">
+        <v>40.683940887451172</v>
+      </c>
+      <c r="E114">
+        <v>3193.929931640625</v>
+      </c>
+      <c r="F114">
+        <v>3384.2900390625</v>
+      </c>
+      <c r="G114">
+        <v>22863.73046875</v>
+      </c>
+      <c r="H114">
+        <v>24770.41015625</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>43990</v>
+      </c>
+      <c r="B115">
+        <v>76.691184997558594</v>
+      </c>
+      <c r="C115">
+        <v>63.745113372802727</v>
+      </c>
+      <c r="D115">
+        <v>40.932498931884773</v>
+      </c>
+      <c r="E115">
+        <v>3232.389892578125</v>
+      </c>
+      <c r="F115">
+        <v>3366.2900390625</v>
+      </c>
+      <c r="G115">
+        <v>23178.099609375</v>
+      </c>
+      <c r="H115">
+        <v>24776.76953125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>43991</v>
+      </c>
+      <c r="B116">
+        <v>76.016891479492188</v>
+      </c>
+      <c r="C116">
+        <v>62.9168701171875</v>
+      </c>
+      <c r="D116">
+        <v>40.65411376953125</v>
+      </c>
+      <c r="E116">
+        <v>3207.179931640625</v>
+      </c>
+      <c r="F116">
+        <v>3320.7099609375</v>
+      </c>
+      <c r="G116">
+        <v>23091.029296875</v>
+      </c>
+      <c r="H116">
+        <v>25057.220703125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>43992</v>
+      </c>
+      <c r="B117">
+        <v>75.808647155761719</v>
+      </c>
+      <c r="C117">
+        <v>62.778827667236328</v>
+      </c>
+      <c r="D117">
+        <v>40.952381134033203</v>
+      </c>
+      <c r="E117">
+        <v>3190.139892578125</v>
+      </c>
+      <c r="F117">
+        <v>3293.7099609375</v>
+      </c>
+      <c r="G117">
+        <v>23124.94921875</v>
+      </c>
+      <c r="H117">
+        <v>25049.73046875</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>43993</v>
+      </c>
+      <c r="B118">
+        <v>71.544723510742188</v>
+      </c>
+      <c r="C118">
+        <v>59.416557312011719</v>
+      </c>
+      <c r="D118">
+        <v>38.814788818359382</v>
+      </c>
+      <c r="E118">
+        <v>3002.10009765625</v>
+      </c>
+      <c r="F118">
+        <v>3144.570068359375</v>
+      </c>
+      <c r="G118">
+        <v>22472.91015625</v>
+      </c>
+      <c r="H118">
+        <v>24480.150390625</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>43994</v>
+      </c>
+      <c r="B119">
+        <v>72.576004028320313</v>
+      </c>
+      <c r="C119">
+        <v>60.442001342773438</v>
+      </c>
+      <c r="D119">
+        <v>39.639999389648437</v>
+      </c>
+      <c r="E119">
+        <v>3041.31005859375</v>
+      </c>
+      <c r="F119">
+        <v>3153.739990234375</v>
+      </c>
+      <c r="G119">
+        <v>22305.48046875</v>
+      </c>
+      <c r="H119">
+        <v>24301.380859375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>43997</v>
+      </c>
+      <c r="B120">
+        <v>73.069999694824219</v>
+      </c>
+      <c r="C120">
+        <v>60.689998626708977</v>
+      </c>
+      <c r="D120">
+        <v>39.279998779296882</v>
+      </c>
+      <c r="E120">
+        <v>3066.590087890625</v>
+      </c>
+      <c r="F120">
+        <v>3136.39990234375</v>
+      </c>
+      <c r="G120">
+        <v>21530.94921875</v>
+      </c>
+      <c r="H120">
+        <v>23776.94921875</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>43998</v>
+      </c>
+      <c r="B121">
+        <v>74.279998779296875</v>
+      </c>
+      <c r="C121">
+        <v>61.439998626708977</v>
+      </c>
+      <c r="D121">
+        <v>39.529998779296882</v>
+      </c>
+      <c r="E121">
+        <v>3124.739990234375</v>
+      </c>
+      <c r="F121">
+        <v>3242.64990234375</v>
+      </c>
+      <c r="G121">
+        <v>22582.2109375</v>
+      </c>
+      <c r="H121">
+        <v>24344.08984375</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>43999</v>
+      </c>
+      <c r="B122">
+        <v>74.239997863769531</v>
+      </c>
+      <c r="C122">
+        <v>61.669998168945313</v>
+      </c>
+      <c r="D122">
+        <v>39.909999847412109</v>
+      </c>
+      <c r="E122">
+        <v>3113.489990234375</v>
+      </c>
+      <c r="F122">
+        <v>3267.260009765625</v>
+      </c>
+      <c r="G122">
+        <v>22455.759765625</v>
+      </c>
+      <c r="H122">
+        <v>24481.41015625</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44000</v>
+      </c>
+      <c r="B123">
+        <v>74.150001525878906</v>
+      </c>
+      <c r="C123">
+        <v>61.340000152587891</v>
+      </c>
+      <c r="D123">
+        <v>39.930000305175781</v>
+      </c>
+      <c r="E123">
+        <v>3115.340087890625</v>
+      </c>
+      <c r="F123">
+        <v>3249.89990234375</v>
+      </c>
+      <c r="G123">
+        <v>22355.4609375</v>
+      </c>
+      <c r="H123">
+        <v>24464.939453125</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44001</v>
+      </c>
+      <c r="B124">
+        <v>73.730003356933594</v>
+      </c>
+      <c r="C124">
+        <v>61.040000915527337</v>
+      </c>
+      <c r="D124">
+        <v>39.919998168945312</v>
+      </c>
+      <c r="E124">
+        <v>3097.739990234375</v>
+      </c>
+      <c r="F124">
+        <v>3269.10009765625</v>
+      </c>
+      <c r="G124">
+        <v>22478.7890625</v>
+      </c>
+      <c r="H124">
+        <v>24643.890625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44004</v>
+      </c>
+      <c r="B125">
+        <v>74.470001220703125</v>
+      </c>
+      <c r="C125">
+        <v>61.770000457763672</v>
+      </c>
+      <c r="D125">
+        <v>40.409999847412109</v>
+      </c>
+      <c r="E125">
+        <v>3117.860107421875</v>
+      </c>
+      <c r="F125">
+        <v>3241.68994140625</v>
+      </c>
+      <c r="G125">
+        <v>22437.26953125</v>
+      </c>
+      <c r="H125">
+        <v>24511.33984375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44005</v>
+      </c>
+      <c r="B126">
+        <v>74.819999694824219</v>
+      </c>
+      <c r="C126">
+        <v>62.110000610351563</v>
+      </c>
+      <c r="D126">
+        <v>40.799999237060547</v>
+      </c>
+      <c r="E126">
+        <v>3131.2900390625</v>
+      </c>
+      <c r="F126">
+        <v>3298.830078125</v>
+      </c>
+      <c r="G126">
+        <v>22549.05078125</v>
+      </c>
+      <c r="H126">
+        <v>24907.33984375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44006</v>
+      </c>
+      <c r="B127">
+        <v>73.05999755859375</v>
+      </c>
+      <c r="C127">
+        <v>60.520000457763672</v>
+      </c>
+      <c r="D127">
+        <v>40.259998321533203</v>
+      </c>
+      <c r="E127">
+        <v>3050.330078125</v>
+      </c>
+      <c r="F127">
+        <v>3196.1201171875</v>
+      </c>
+      <c r="G127">
+        <v>22534.3203125</v>
+      </c>
+      <c r="H127">
+        <v>24781.580078125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44007</v>
+      </c>
+      <c r="B128">
+        <v>73.839996337890625</v>
+      </c>
+      <c r="C128">
+        <v>61.380001068115227</v>
+      </c>
+      <c r="D128">
+        <v>40.430000305175781</v>
+      </c>
+      <c r="E128">
+        <v>3083.760009765625</v>
+      </c>
+      <c r="F128">
+        <v>3218.909912109375</v>
+      </c>
+      <c r="G128">
+        <v>22259.7890625</v>
+      </c>
+      <c r="H128">
+        <v>24781.580078125</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44008</v>
+      </c>
+      <c r="B129">
+        <v>72.410003662109375</v>
+      </c>
+      <c r="C129">
+        <v>60.490001678466797</v>
+      </c>
+      <c r="D129">
+        <v>39.939998626708977</v>
+      </c>
+      <c r="E129">
+        <v>3009.050048828125</v>
+      </c>
+      <c r="F129">
+        <v>3204.169921875</v>
+      </c>
+      <c r="G129">
+        <v>22512.080078125</v>
+      </c>
+      <c r="H129">
+        <v>24549.990234375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44011</v>
+      </c>
+      <c r="B130">
+        <v>73.239997863769531</v>
+      </c>
+      <c r="C130">
+        <v>60.979999542236328</v>
+      </c>
+      <c r="D130">
+        <v>40.119998931884773</v>
+      </c>
+      <c r="E130">
+        <v>3053.239990234375</v>
+      </c>
+      <c r="F130">
+        <v>3232.02001953125</v>
+      </c>
+      <c r="G130">
+        <v>21995.0390625</v>
+      </c>
+      <c r="H130">
+        <v>24301.279296875</v>
       </c>
     </row>
   </sheetData>

--- a/market.xlsx
+++ b/market.xlsx
@@ -78,8 +78,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>^HIS</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>^HSI</t>
   </si>
 </sst>
 </file>
@@ -338,25 +337,25 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-6.8017441021700931E-2</c:v>
+                  <c:v>1.2404864550731087E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.10936588885953324</c:v>
+                  <c:v>-6.5841958662381295E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.10067333952083291</c:v>
+                  <c:v>-2.737327297699288E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.4952685559697012E-2</c:v>
+                  <c:v>3.2403921175975015E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.13777620074544739</c:v>
+                  <c:v>-0.14250345502295758</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-7.0237427768011229E-2</c:v>
+                  <c:v>-4.9677230102667114E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.13793916948979679</c:v>
+                  <c:v>-0.17432650885960321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,25 +479,25 @@
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.2703089337490212E-2</c:v>
+                  <c:v>-3.3879793166044947E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.6982466929260438E-2</c:v>
+                  <c:v>-1.5697202520259523E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.951457222943791E-2</c:v>
+                  <c:v>-2.5819521828478242E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9333187056346244E-3</c:v>
+                  <c:v>-4.70929960864237E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9609229319383061E-2</c:v>
+                  <c:v>-1.7787557796246078E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3546495641647596E-3</c:v>
+                  <c:v>1.7257735075678404E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.8350295199847801E-2</c:v>
+                  <c:v>-7.5525982010216652E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -514,11 +513,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="39499984"/>
-        <c:axId val="39497632"/>
+        <c:axId val="1272657280"/>
+        <c:axId val="1272660024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="39499984"/>
+        <c:axId val="1272657280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +560,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39497632"/>
+        <c:crossAx val="1272660024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +568,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="39497632"/>
+        <c:axId val="1272660024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,7 +605,7 @@
             <a:endParaRPr lang="ko-KR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39499984"/>
+        <c:crossAx val="1272657280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1556,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q130"/>
+  <dimension ref="A1:Q196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V5" sqref="V5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1643,26 +1642,26 @@
         <v>14</v>
       </c>
       <c r="K2" s="5">
-        <f t="array" ref="K2:Q2">$B$130:$H$130 / $B$2:$H$2 - 1</f>
-        <v>-6.8017441021700931E-2</v>
+        <f t="array" ref="K2:Q2">$B$196:$H$196 / $B$2:$H$2 - 1</f>
+        <v>1.2404864550731087E-2</v>
       </c>
       <c r="L2" s="5">
-        <v>-0.10936588885953324</v>
+        <v>-6.5841958662381295E-2</v>
       </c>
       <c r="M2" s="5">
-        <v>-0.10067333952083291</v>
+        <v>-2.737327297699288E-2</v>
       </c>
       <c r="N2" s="5">
-        <v>-5.4952685559697012E-2</v>
+        <v>3.2403921175975015E-2</v>
       </c>
       <c r="O2" s="5">
-        <v>-0.13777620074544739</v>
+        <v>-0.14250345502295758</v>
       </c>
       <c r="P2" s="5">
-        <v>-7.0237427768011229E-2</v>
+        <v>-4.9677230102667114E-3</v>
       </c>
       <c r="Q2" s="5">
-        <v>-0.13793916948979679</v>
+        <v>-0.17432650885960321</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
@@ -1694,26 +1693,26 @@
         <v>15</v>
       </c>
       <c r="K3" s="5">
-        <f t="array" ref="K3:Q3">$B$130:$H$130 / $B$109:$H$109 - 1</f>
-        <v>2.2703089337490212E-2</v>
+        <f t="array" ref="K3:Q3">$B$196:$H$196 / $B$175:$H$175 - 1</f>
+        <v>-3.3879793166044947E-2</v>
       </c>
       <c r="L3" s="5">
-        <v>3.6982466929260438E-2</v>
+        <v>-1.5697202520259523E-2</v>
       </c>
       <c r="M3" s="5">
-        <v>6.951457222943791E-2</v>
+        <v>-2.5819521828478242E-2</v>
       </c>
       <c r="N3" s="5">
-        <v>2.9333187056346244E-3</v>
+        <v>-4.70929960864237E-2</v>
       </c>
       <c r="O3" s="5">
-        <v>5.9609229319383061E-2</v>
+        <v>-1.7787557796246078E-2</v>
       </c>
       <c r="P3" s="5">
-        <v>5.3546495641647596E-3</v>
+        <v>1.7257735075678404E-2</v>
       </c>
       <c r="Q3" s="5">
-        <v>5.8350295199847801E-2</v>
+        <v>-7.5525982010216652E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,6 +5015,1722 @@
       </c>
       <c r="H130">
         <v>24301.279296875</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44012</v>
+      </c>
+      <c r="B131">
+        <v>73.720001220703125</v>
+      </c>
+      <c r="C131">
+        <v>60.869998931884773</v>
+      </c>
+      <c r="D131">
+        <v>39.990001678466797</v>
+      </c>
+      <c r="E131">
+        <v>3100.2900390625</v>
+      </c>
+      <c r="F131">
+        <v>3234.070068359375</v>
+      </c>
+      <c r="G131">
+        <v>22288.140625</v>
+      </c>
+      <c r="H131">
+        <v>24427.189453125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B132">
+        <v>74.269996643066406</v>
+      </c>
+      <c r="C132">
+        <v>61.099998474121087</v>
+      </c>
+      <c r="D132">
+        <v>40.439998626708977</v>
+      </c>
+      <c r="E132">
+        <v>3115.860107421875</v>
+      </c>
+      <c r="F132">
+        <v>3228.449951171875</v>
+      </c>
+      <c r="G132">
+        <v>22121.73046875</v>
+      </c>
+      <c r="H132">
+        <v>24427.189453125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44014</v>
+      </c>
+      <c r="B133">
+        <v>74.959999084472656</v>
+      </c>
+      <c r="C133">
+        <v>61.770000457763672</v>
+      </c>
+      <c r="D133">
+        <v>41.360000610351562</v>
+      </c>
+      <c r="E133">
+        <v>3130.010009765625</v>
+      </c>
+      <c r="F133">
+        <v>3320.090087890625</v>
+      </c>
+      <c r="G133">
+        <v>22145.9609375</v>
+      </c>
+      <c r="H133">
+        <v>25124.189453125</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44015</v>
+      </c>
+      <c r="B134">
+        <v>74.959999084472656</v>
+      </c>
+      <c r="C134">
+        <v>61.770000457763672</v>
+      </c>
+      <c r="D134">
+        <v>41.360000610351562</v>
+      </c>
+      <c r="E134">
+        <v>3130.010009765625</v>
+      </c>
+      <c r="F134">
+        <v>3294.3798828125</v>
+      </c>
+      <c r="G134">
+        <v>22306.48046875</v>
+      </c>
+      <c r="H134">
+        <v>25373.119140625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44018</v>
+      </c>
+      <c r="B135">
+        <v>76.400001525878906</v>
+      </c>
+      <c r="C135">
+        <v>62.779998779296882</v>
+      </c>
+      <c r="D135">
+        <v>43.139999389648438</v>
+      </c>
+      <c r="E135">
+        <v>3179.719970703125</v>
+      </c>
+      <c r="F135">
+        <v>3350.030029296875</v>
+      </c>
+      <c r="G135">
+        <v>22714.439453125</v>
+      </c>
+      <c r="H135">
+        <v>26339.16015625</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44019</v>
+      </c>
+      <c r="B136">
+        <v>75.510002136230469</v>
+      </c>
+      <c r="C136">
+        <v>61.860000610351562</v>
+      </c>
+      <c r="D136">
+        <v>42.419998168945313</v>
+      </c>
+      <c r="E136">
+        <v>3145.320068359375</v>
+      </c>
+      <c r="F136">
+        <v>3321.56005859375</v>
+      </c>
+      <c r="G136">
+        <v>22614.689453125</v>
+      </c>
+      <c r="H136">
+        <v>25975.66015625</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44020</v>
+      </c>
+      <c r="B137">
+        <v>76.290000915527344</v>
+      </c>
+      <c r="C137">
+        <v>62.380001068115227</v>
+      </c>
+      <c r="D137">
+        <v>43.520000457763672</v>
+      </c>
+      <c r="E137">
+        <v>3169.93994140625</v>
+      </c>
+      <c r="F137">
+        <v>3286.090087890625</v>
+      </c>
+      <c r="G137">
+        <v>22438.650390625</v>
+      </c>
+      <c r="H137">
+        <v>26129.1796875</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44021</v>
+      </c>
+      <c r="B138">
+        <v>75.819999694824219</v>
+      </c>
+      <c r="C138">
+        <v>61.669998168945313</v>
+      </c>
+      <c r="D138">
+        <v>43.520000457763672</v>
+      </c>
+      <c r="E138">
+        <v>3152.050048828125</v>
+      </c>
+      <c r="F138">
+        <v>3261.169921875</v>
+      </c>
+      <c r="G138">
+        <v>22529.2890625</v>
+      </c>
+      <c r="H138">
+        <v>26210.16015625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44022</v>
+      </c>
+      <c r="B139">
+        <v>76.430000305175781</v>
+      </c>
+      <c r="C139">
+        <v>62.330001831054688</v>
+      </c>
+      <c r="D139">
+        <v>43.240001678466797</v>
+      </c>
+      <c r="E139">
+        <v>3185.0400390625</v>
+      </c>
+      <c r="F139">
+        <v>3296.219970703125</v>
+      </c>
+      <c r="G139">
+        <v>22290.810546875</v>
+      </c>
+      <c r="H139">
+        <v>25727.41015625</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44025</v>
+      </c>
+      <c r="B140">
+        <v>75.760002136230469</v>
+      </c>
+      <c r="C140">
+        <v>61.930000305175781</v>
+      </c>
+      <c r="D140">
+        <v>42.950000762939453</v>
+      </c>
+      <c r="E140">
+        <v>3155.219970703125</v>
+      </c>
+      <c r="F140">
+        <v>3350</v>
+      </c>
+      <c r="G140">
+        <v>22784.740234375</v>
+      </c>
+      <c r="H140">
+        <v>25772.119140625</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44026</v>
+      </c>
+      <c r="B141">
+        <v>76.699996948242188</v>
+      </c>
+      <c r="C141">
+        <v>62.840000152587891</v>
+      </c>
+      <c r="D141">
+        <v>43.009998321533203</v>
+      </c>
+      <c r="E141">
+        <v>3197.52001953125</v>
+      </c>
+      <c r="F141">
+        <v>3321.389892578125</v>
+      </c>
+      <c r="G141">
+        <v>22587.009765625</v>
+      </c>
+      <c r="H141">
+        <v>25477.890625</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44027</v>
+      </c>
+      <c r="B142">
+        <v>77.459999084472656</v>
+      </c>
+      <c r="C142">
+        <v>63.549999237060547</v>
+      </c>
+      <c r="D142">
+        <v>43.139999389648438</v>
+      </c>
+      <c r="E142">
+        <v>3226.56005859375</v>
+      </c>
+      <c r="F142">
+        <v>3378.2099609375</v>
+      </c>
+      <c r="G142">
+        <v>22945.5</v>
+      </c>
+      <c r="H142">
+        <v>25481.580078125</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44028</v>
+      </c>
+      <c r="B143">
+        <v>76.989997863769531</v>
+      </c>
+      <c r="C143">
+        <v>63.139999389648438</v>
+      </c>
+      <c r="D143">
+        <v>42.529998779296882</v>
+      </c>
+      <c r="E143">
+        <v>3215.570068359375</v>
+      </c>
+      <c r="F143">
+        <v>3365.35009765625</v>
+      </c>
+      <c r="G143">
+        <v>22770.359375</v>
+      </c>
+      <c r="H143">
+        <v>24970.689453125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44029</v>
+      </c>
+      <c r="B144">
+        <v>77.260002136230469</v>
+      </c>
+      <c r="C144">
+        <v>63.509998321533203</v>
+      </c>
+      <c r="D144">
+        <v>42.770000457763672</v>
+      </c>
+      <c r="E144">
+        <v>3224.72998046875</v>
+      </c>
+      <c r="F144">
+        <v>3365.60009765625</v>
+      </c>
+      <c r="G144">
+        <v>22696.419921875</v>
+      </c>
+      <c r="H144">
+        <v>25089.169921875</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44032</v>
+      </c>
+      <c r="B145">
+        <v>77.94000244140625</v>
+      </c>
+      <c r="C145">
+        <v>63.819999694824219</v>
+      </c>
+      <c r="D145">
+        <v>43.319999694824219</v>
+      </c>
+      <c r="E145">
+        <v>3251.840087890625</v>
+      </c>
+      <c r="F145">
+        <v>3388.340087890625</v>
+      </c>
+      <c r="G145">
+        <v>22717.48046875</v>
+      </c>
+      <c r="H145">
+        <v>25057.990234375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44033</v>
+      </c>
+      <c r="B146">
+        <v>78.180000305175781</v>
+      </c>
+      <c r="C146">
+        <v>63.950000762939453</v>
+      </c>
+      <c r="D146">
+        <v>43.720001220703118</v>
+      </c>
+      <c r="E146">
+        <v>3257.300048828125</v>
+      </c>
+      <c r="F146">
+        <v>3405.35009765625</v>
+      </c>
+      <c r="G146">
+        <v>22884.220703125</v>
+      </c>
+      <c r="H146">
+        <v>25635.66015625</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44034</v>
+      </c>
+      <c r="B147">
+        <v>78.430000305175781</v>
+      </c>
+      <c r="C147">
+        <v>64.120002746582031</v>
+      </c>
+      <c r="D147">
+        <v>43.529998779296882</v>
+      </c>
+      <c r="E147">
+        <v>3276.02001953125</v>
+      </c>
+      <c r="F147">
+        <v>3370.760009765625</v>
+      </c>
+      <c r="G147">
+        <v>22751.609375</v>
+      </c>
+      <c r="H147">
+        <v>25057.939453125</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2">
+        <v>44035</v>
+      </c>
+      <c r="B148">
+        <v>77.620002746582031</v>
+      </c>
+      <c r="C148">
+        <v>63.610000610351562</v>
+      </c>
+      <c r="D148">
+        <v>43.180000305175781</v>
+      </c>
+      <c r="E148">
+        <v>3235.659912109375</v>
+      </c>
+      <c r="F148">
+        <v>3371.739990234375</v>
+      </c>
+      <c r="G148">
+        <v>22751.609375</v>
+      </c>
+      <c r="H148">
+        <v>25263</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2">
+        <v>44036</v>
+      </c>
+      <c r="B149">
+        <v>77.160003662109375</v>
+      </c>
+      <c r="C149">
+        <v>63.259998321533203</v>
+      </c>
+      <c r="D149">
+        <v>43.139999389648438</v>
+      </c>
+      <c r="E149">
+        <v>3215.6298828125</v>
+      </c>
+      <c r="F149">
+        <v>3310.889892578125</v>
+      </c>
+      <c r="G149">
+        <v>22751.609375</v>
+      </c>
+      <c r="H149">
+        <v>24705.330078125</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="2">
+        <v>44039</v>
+      </c>
+      <c r="B150">
+        <v>78.019996643066406</v>
+      </c>
+      <c r="C150">
+        <v>64.089996337890625</v>
+      </c>
+      <c r="D150">
+        <v>43.810001373291023</v>
+      </c>
+      <c r="E150">
+        <v>3239.409912109375</v>
+      </c>
+      <c r="F150">
+        <v>3302.840087890625</v>
+      </c>
+      <c r="G150">
+        <v>22715.849609375</v>
+      </c>
+      <c r="H150">
+        <v>24603.259765625</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2">
+        <v>44040</v>
+      </c>
+      <c r="B151">
+        <v>77.489997863769531</v>
+      </c>
+      <c r="C151">
+        <v>63.680000305175781</v>
+      </c>
+      <c r="D151">
+        <v>43.450000762939453</v>
+      </c>
+      <c r="E151">
+        <v>3218.43994140625</v>
+      </c>
+      <c r="F151">
+        <v>3303.56005859375</v>
+      </c>
+      <c r="G151">
+        <v>22657.380859375</v>
+      </c>
+      <c r="H151">
+        <v>24772.759765625</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="2">
+        <v>44041</v>
+      </c>
+      <c r="B152">
+        <v>78.410003662109375</v>
+      </c>
+      <c r="C152">
+        <v>64.349998474121094</v>
+      </c>
+      <c r="D152">
+        <v>44.150001525878913</v>
+      </c>
+      <c r="E152">
+        <v>3258.43994140625</v>
+      </c>
+      <c r="F152">
+        <v>3300.159912109375</v>
+      </c>
+      <c r="G152">
+        <v>22397.109375</v>
+      </c>
+      <c r="H152">
+        <v>24883.140625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2">
+        <v>44042</v>
+      </c>
+      <c r="B153">
+        <v>77.900001525878906</v>
+      </c>
+      <c r="C153">
+        <v>63.400001525878913</v>
+      </c>
+      <c r="D153">
+        <v>43.590000152587891</v>
+      </c>
+      <c r="E153">
+        <v>3246.219970703125</v>
+      </c>
+      <c r="F153">
+        <v>3208.199951171875</v>
+      </c>
+      <c r="G153">
+        <v>22339.23046875</v>
+      </c>
+      <c r="H153">
+        <v>24710.58984375</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2">
+        <v>44043</v>
+      </c>
+      <c r="B154">
+        <v>77.669998168945313</v>
+      </c>
+      <c r="C154">
+        <v>62.049999237060547</v>
+      </c>
+      <c r="D154">
+        <v>43.290000915527337</v>
+      </c>
+      <c r="E154">
+        <v>3271.1201171875</v>
+      </c>
+      <c r="F154">
+        <v>3174.320068359375</v>
+      </c>
+      <c r="G154">
+        <v>21710</v>
+      </c>
+      <c r="H154">
+        <v>24595.349609375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2">
+        <v>44046</v>
+      </c>
+      <c r="B155">
+        <v>78.489997863769531</v>
+      </c>
+      <c r="C155">
+        <v>63.259998321533203</v>
+      </c>
+      <c r="D155">
+        <v>43.590000152587891</v>
+      </c>
+      <c r="E155">
+        <v>3294.610107421875</v>
+      </c>
+      <c r="F155">
+        <v>3248.280029296875</v>
+      </c>
+      <c r="G155">
+        <v>22195.380859375</v>
+      </c>
+      <c r="H155">
+        <v>24458.130859375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2">
+        <v>44047</v>
+      </c>
+      <c r="B156">
+        <v>78.900001525878906</v>
+      </c>
+      <c r="C156">
+        <v>63.610000610351562</v>
+      </c>
+      <c r="D156">
+        <v>44.169998168945313</v>
+      </c>
+      <c r="E156">
+        <v>3306.510009765625</v>
+      </c>
+      <c r="F156">
+        <v>3254.2900390625</v>
+      </c>
+      <c r="G156">
+        <v>22573.66015625</v>
+      </c>
+      <c r="H156">
+        <v>24946.630859375</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2">
+        <v>44048</v>
+      </c>
+      <c r="B157">
+        <v>79.44000244140625</v>
+      </c>
+      <c r="C157">
+        <v>63.819999694824219</v>
+      </c>
+      <c r="D157">
+        <v>44.650001525878913</v>
+      </c>
+      <c r="E157">
+        <v>3327.77001953125</v>
+      </c>
+      <c r="F157">
+        <v>3268.3798828125</v>
+      </c>
+      <c r="G157">
+        <v>22514.849609375</v>
+      </c>
+      <c r="H157">
+        <v>25102.5390625</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2">
+        <v>44049</v>
+      </c>
+      <c r="B158">
+        <v>79.720001220703125</v>
+      </c>
+      <c r="C158">
+        <v>63.889999389648437</v>
+      </c>
+      <c r="D158">
+        <v>44.790000915527337</v>
+      </c>
+      <c r="E158">
+        <v>3349.159912109375</v>
+      </c>
+      <c r="F158">
+        <v>3240.389892578125</v>
+      </c>
+      <c r="G158">
+        <v>22418.150390625</v>
+      </c>
+      <c r="H158">
+        <v>24930.580078125</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2">
+        <v>44050</v>
+      </c>
+      <c r="B159">
+        <v>79.360000610351563</v>
+      </c>
+      <c r="C159">
+        <v>63.630001068115227</v>
+      </c>
+      <c r="D159">
+        <v>43.869998931884773</v>
+      </c>
+      <c r="E159">
+        <v>3351.280029296875</v>
+      </c>
+      <c r="F159">
+        <v>3252.64990234375</v>
+      </c>
+      <c r="G159">
+        <v>22329.939453125</v>
+      </c>
+      <c r="H159">
+        <v>24531.619140625</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B160">
+        <v>79.55999755859375</v>
+      </c>
+      <c r="C160">
+        <v>63.840000152587891</v>
+      </c>
+      <c r="D160">
+        <v>43.979999542236328</v>
+      </c>
+      <c r="E160">
+        <v>3360.469970703125</v>
+      </c>
+      <c r="F160">
+        <v>3259.7099609375</v>
+      </c>
+      <c r="G160">
+        <v>22329.939453125</v>
+      </c>
+      <c r="H160">
+        <v>24377.4296875</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2">
+        <v>44054</v>
+      </c>
+      <c r="B161">
+        <v>79.279998779296875</v>
+      </c>
+      <c r="C161">
+        <v>64.069999694824219</v>
+      </c>
+      <c r="D161">
+        <v>43.860000610351563</v>
+      </c>
+      <c r="E161">
+        <v>3333.68994140625</v>
+      </c>
+      <c r="F161">
+        <v>3332.1201171875</v>
+      </c>
+      <c r="G161">
+        <v>22750.240234375</v>
+      </c>
+      <c r="H161">
+        <v>24890.6796875</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B162">
+        <v>80.529998779296875</v>
+      </c>
+      <c r="C162">
+        <v>65.489997863769531</v>
+      </c>
+      <c r="D162">
+        <v>44.450000762939453</v>
+      </c>
+      <c r="E162">
+        <v>3380.35009765625</v>
+      </c>
+      <c r="F162">
+        <v>3363.179931640625</v>
+      </c>
+      <c r="G162">
+        <v>22843.9609375</v>
+      </c>
+      <c r="H162">
+        <v>25244.01953125</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2">
+        <v>44056</v>
+      </c>
+      <c r="B163">
+        <v>80.360000610351563</v>
+      </c>
+      <c r="C163">
+        <v>65.199996948242188</v>
+      </c>
+      <c r="D163">
+        <v>44.319999694824219</v>
+      </c>
+      <c r="E163">
+        <v>3373.429931640625</v>
+      </c>
+      <c r="F163">
+        <v>3342.85009765625</v>
+      </c>
+      <c r="G163">
+        <v>23249.609375</v>
+      </c>
+      <c r="H163">
+        <v>25230.669921875</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B164">
+        <v>80.180000305175781</v>
+      </c>
+      <c r="C164">
+        <v>64.800003051757812</v>
+      </c>
+      <c r="D164">
+        <v>44.240001678466797</v>
+      </c>
+      <c r="E164">
+        <v>3372.85009765625</v>
+      </c>
+      <c r="F164">
+        <v>3305.050048828125</v>
+      </c>
+      <c r="G164">
+        <v>23289.359375</v>
+      </c>
+      <c r="H164">
+        <v>25183.009765625</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B165">
+        <v>80.760002136230469</v>
+      </c>
+      <c r="C165">
+        <v>65.290000915527344</v>
+      </c>
+      <c r="D165">
+        <v>44.799999237060547</v>
+      </c>
+      <c r="E165">
+        <v>3381.989990234375</v>
+      </c>
+      <c r="F165">
+        <v>3305.85009765625</v>
+      </c>
+      <c r="G165">
+        <v>23096.75</v>
+      </c>
+      <c r="H165">
+        <v>25347.33984375</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B166">
+        <v>80.849998474121094</v>
+      </c>
+      <c r="C166">
+        <v>65.25</v>
+      </c>
+      <c r="D166">
+        <v>44.75</v>
+      </c>
+      <c r="E166">
+        <v>3389.780029296875</v>
+      </c>
+      <c r="F166">
+        <v>3289.639892578125</v>
+      </c>
+      <c r="G166">
+        <v>23051.080078125</v>
+      </c>
+      <c r="H166">
+        <v>25367.380859375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B167">
+        <v>80.410003662109375</v>
+      </c>
+      <c r="C167">
+        <v>64.959999084472656</v>
+      </c>
+      <c r="D167">
+        <v>44.200000762939453</v>
+      </c>
+      <c r="E167">
+        <v>3374.85009765625</v>
+      </c>
+      <c r="F167">
+        <v>3317.6201171875</v>
+      </c>
+      <c r="G167">
+        <v>23110.609375</v>
+      </c>
+      <c r="H167">
+        <v>25178.91015625</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B168">
+        <v>80.489997863769531</v>
+      </c>
+      <c r="C168">
+        <v>64.75</v>
+      </c>
+      <c r="D168">
+        <v>44.060001373291023</v>
+      </c>
+      <c r="E168">
+        <v>3385.510009765625</v>
+      </c>
+      <c r="F168">
+        <v>3273.97998046875</v>
+      </c>
+      <c r="G168">
+        <v>22880.619140625</v>
+      </c>
+      <c r="H168">
+        <v>24791.390625</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B169">
+        <v>80.620002746582031</v>
+      </c>
+      <c r="C169">
+        <v>64.419998168945313</v>
+      </c>
+      <c r="D169">
+        <v>44.279998779296882</v>
+      </c>
+      <c r="E169">
+        <v>3397.159912109375</v>
+      </c>
+      <c r="F169">
+        <v>3259.75</v>
+      </c>
+      <c r="G169">
+        <v>22920.30078125</v>
+      </c>
+      <c r="H169">
+        <v>25113.83984375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B170">
+        <v>81.480003356933594</v>
+      </c>
+      <c r="C170">
+        <v>65.269996643066406</v>
+      </c>
+      <c r="D170">
+        <v>44.770000457763672</v>
+      </c>
+      <c r="E170">
+        <v>3431.280029296875</v>
+      </c>
+      <c r="F170">
+        <v>3331.739990234375</v>
+      </c>
+      <c r="G170">
+        <v>22985.509765625</v>
+      </c>
+      <c r="H170">
+        <v>25551.580078125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B171">
+        <v>81.800003051757812</v>
+      </c>
+      <c r="C171">
+        <v>65.30999755859375</v>
+      </c>
+      <c r="D171">
+        <v>45.220001220703118</v>
+      </c>
+      <c r="E171">
+        <v>3443.6201171875</v>
+      </c>
+      <c r="F171">
+        <v>3329.7099609375</v>
+      </c>
+      <c r="G171">
+        <v>23296.76953125</v>
+      </c>
+      <c r="H171">
+        <v>25486.220703125</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B172">
+        <v>82.470001220703125</v>
+      </c>
+      <c r="C172">
+        <v>65.69000244140625</v>
+      </c>
+      <c r="D172">
+        <v>45.340000152587891</v>
+      </c>
+      <c r="E172">
+        <v>3478.72998046875</v>
+      </c>
+      <c r="F172">
+        <v>3356.760009765625</v>
+      </c>
+      <c r="G172">
+        <v>23290.859375</v>
+      </c>
+      <c r="H172">
+        <v>25491.7890625</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B173">
+        <v>82.220001220703125</v>
+      </c>
+      <c r="C173">
+        <v>65.019996643066406</v>
+      </c>
+      <c r="D173">
+        <v>44.959999084472663</v>
+      </c>
+      <c r="E173">
+        <v>3484.550048828125</v>
+      </c>
+      <c r="F173">
+        <v>3331.0400390625</v>
+      </c>
+      <c r="G173">
+        <v>23208.859375</v>
+      </c>
+      <c r="H173">
+        <v>25281.150390625</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B174">
+        <v>82.849998474121094</v>
+      </c>
+      <c r="C174">
+        <v>65.480003356933594</v>
+      </c>
+      <c r="D174">
+        <v>45.549999237060547</v>
+      </c>
+      <c r="E174">
+        <v>3508.010009765625</v>
+      </c>
+      <c r="F174">
+        <v>3315.5400390625</v>
+      </c>
+      <c r="G174">
+        <v>22882.650390625</v>
+      </c>
+      <c r="H174">
+        <v>25422.060546875</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B175">
+        <v>82.349998474121094</v>
+      </c>
+      <c r="C175">
+        <v>64.980003356933594</v>
+      </c>
+      <c r="D175">
+        <v>44.540000915527337</v>
+      </c>
+      <c r="E175">
+        <v>3500.31005859375</v>
+      </c>
+      <c r="F175">
+        <v>3272.510009765625</v>
+      </c>
+      <c r="G175">
+        <v>23139.759765625</v>
+      </c>
+      <c r="H175">
+        <v>25177.05078125</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B176">
+        <v>83.05999755859375</v>
+      </c>
+      <c r="C176">
+        <v>65.050003051757813</v>
+      </c>
+      <c r="D176">
+        <v>45.299999237060547</v>
+      </c>
+      <c r="E176">
+        <v>3526.64990234375</v>
+      </c>
+      <c r="F176">
+        <v>3277.580078125</v>
+      </c>
+      <c r="G176">
+        <v>23138.0703125</v>
+      </c>
+      <c r="H176">
+        <v>25184.849609375</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B177">
+        <v>84.010002136230469</v>
+      </c>
+      <c r="C177">
+        <v>65.919998168945313</v>
+      </c>
+      <c r="D177">
+        <v>45.180000305175781</v>
+      </c>
+      <c r="E177">
+        <v>3580.840087890625</v>
+      </c>
+      <c r="F177">
+        <v>3337.77001953125</v>
+      </c>
+      <c r="G177">
+        <v>23247.150390625</v>
+      </c>
+      <c r="H177">
+        <v>25120.08984375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B178">
+        <v>81.449996948242187</v>
+      </c>
+      <c r="C178">
+        <v>64.430000305175781</v>
+      </c>
+      <c r="D178">
+        <v>44.319999694824219</v>
+      </c>
+      <c r="E178">
+        <v>3455.06005859375</v>
+      </c>
+      <c r="F178">
+        <v>3304.219970703125</v>
+      </c>
+      <c r="G178">
+        <v>23465.529296875</v>
+      </c>
+      <c r="H178">
+        <v>25007.599609375</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B179">
+        <v>81.050003051757813</v>
+      </c>
+      <c r="C179">
+        <v>64.519996643066406</v>
+      </c>
+      <c r="D179">
+        <v>44.340000152587891</v>
+      </c>
+      <c r="E179">
+        <v>3426.9599609375</v>
+      </c>
+      <c r="F179">
+        <v>3260.590087890625</v>
+      </c>
+      <c r="G179">
+        <v>23205.4296875</v>
+      </c>
+      <c r="H179">
+        <v>24695.44921875</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B180">
+        <v>81.050003051757813</v>
+      </c>
+      <c r="C180">
+        <v>64.519996643066406</v>
+      </c>
+      <c r="D180">
+        <v>44.340000152587891</v>
+      </c>
+      <c r="E180">
+        <v>3426.9599609375</v>
+      </c>
+      <c r="F180">
+        <v>3314.070068359375</v>
+      </c>
+      <c r="G180">
+        <v>23089.94921875</v>
+      </c>
+      <c r="H180">
+        <v>24589.650390625</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B181">
+        <v>79.150001525878906</v>
+      </c>
+      <c r="C181">
+        <v>63.729999542236328</v>
+      </c>
+      <c r="D181">
+        <v>43.569999694824219</v>
+      </c>
+      <c r="E181">
+        <v>3331.840087890625</v>
+      </c>
+      <c r="F181">
+        <v>3267.3701171875</v>
+      </c>
+      <c r="G181">
+        <v>23274.130859375</v>
+      </c>
+      <c r="H181">
+        <v>24624.33984375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B182">
+        <v>80.699996948242188</v>
+      </c>
+      <c r="C182">
+        <v>64.919998168945313</v>
+      </c>
+      <c r="D182">
+        <v>44.220001220703118</v>
+      </c>
+      <c r="E182">
+        <v>3398.9599609375</v>
+      </c>
+      <c r="F182">
+        <v>3324.830078125</v>
+      </c>
+      <c r="G182">
+        <v>23032.5390625</v>
+      </c>
+      <c r="H182">
+        <v>24468.9296875</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B183">
+        <v>79.510002136230469</v>
+      </c>
+      <c r="C183">
+        <v>64.160003662109375</v>
+      </c>
+      <c r="D183">
+        <v>43.509998321533203</v>
+      </c>
+      <c r="E183">
+        <v>3339.18994140625</v>
+      </c>
+      <c r="F183">
+        <v>3312.77001953125</v>
+      </c>
+      <c r="G183">
+        <v>23235.470703125</v>
+      </c>
+      <c r="H183">
+        <v>24313.5390625</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2">
+        <v>44085</v>
+      </c>
+      <c r="B184">
+        <v>79.800003051757813</v>
+      </c>
+      <c r="C184">
+        <v>64.800003051757812</v>
+      </c>
+      <c r="D184">
+        <v>43.930000305175781</v>
+      </c>
+      <c r="E184">
+        <v>3340.969970703125</v>
+      </c>
+      <c r="F184">
+        <v>3315.81005859375</v>
+      </c>
+      <c r="G184">
+        <v>23406.490234375</v>
+      </c>
+      <c r="H184">
+        <v>24503.310546875</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B185">
+        <v>80.779998779296875</v>
+      </c>
+      <c r="C185">
+        <v>65.150001525878906</v>
+      </c>
+      <c r="D185">
+        <v>44.639999389648438</v>
+      </c>
+      <c r="E185">
+        <v>3383.5400390625</v>
+      </c>
+      <c r="F185">
+        <v>3316.7900390625</v>
+      </c>
+      <c r="G185">
+        <v>23559.30078125</v>
+      </c>
+      <c r="H185">
+        <v>24640.279296875</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B186">
+        <v>81.319999694824219</v>
+      </c>
+      <c r="C186">
+        <v>65.569999694824219</v>
+      </c>
+      <c r="D186">
+        <v>45.110000610351562</v>
+      </c>
+      <c r="E186">
+        <v>3401.199951171875</v>
+      </c>
+      <c r="F186">
+        <v>3332.260009765625</v>
+      </c>
+      <c r="G186">
+        <v>23454.890625</v>
+      </c>
+      <c r="H186">
+        <v>24732.759765625</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B187">
+        <v>81.099998474121094</v>
+      </c>
+      <c r="C187">
+        <v>65.569999694824219</v>
+      </c>
+      <c r="D187">
+        <v>45.049999237060547</v>
+      </c>
+      <c r="E187">
+        <v>3385.489990234375</v>
+      </c>
+      <c r="F187">
+        <v>3338.840087890625</v>
+      </c>
+      <c r="G187">
+        <v>23475.529296875</v>
+      </c>
+      <c r="H187">
+        <v>24725.630859375</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B188">
+        <v>80.660003662109375</v>
+      </c>
+      <c r="C188">
+        <v>65.660003662109375</v>
+      </c>
+      <c r="D188">
+        <v>44.869998931884773</v>
+      </c>
+      <c r="E188">
+        <v>3357.010009765625</v>
+      </c>
+      <c r="F188">
+        <v>3316.570068359375</v>
+      </c>
+      <c r="G188">
+        <v>23319.369140625</v>
+      </c>
+      <c r="H188">
+        <v>24340.849609375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B189">
+        <v>79.900001525878906</v>
+      </c>
+      <c r="C189">
+        <v>65.129997253417969</v>
+      </c>
+      <c r="D189">
+        <v>44.520000457763672</v>
+      </c>
+      <c r="E189">
+        <v>3319.469970703125</v>
+      </c>
+      <c r="F189">
+        <v>3283.68994140625</v>
+      </c>
+      <c r="G189">
+        <v>23360.30078125</v>
+      </c>
+      <c r="H189">
+        <v>24455.41015625</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B190">
+        <v>78.800003051757813</v>
+      </c>
+      <c r="C190">
+        <v>63.479999542236328</v>
+      </c>
+      <c r="D190">
+        <v>44.110000610351563</v>
+      </c>
+      <c r="E190">
+        <v>3281.06005859375</v>
+      </c>
+      <c r="F190">
+        <v>3160.949951171875</v>
+      </c>
+      <c r="G190">
+        <v>23360.30078125</v>
+      </c>
+      <c r="H190">
+        <v>23950.689453125</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B191">
+        <v>79.169998168945313</v>
+      </c>
+      <c r="C191">
+        <v>63.459999084472663</v>
+      </c>
+      <c r="D191">
+        <v>43.779998779296882</v>
+      </c>
+      <c r="E191">
+        <v>3315.570068359375</v>
+      </c>
+      <c r="F191">
+        <v>3164.1298828125</v>
+      </c>
+      <c r="G191">
+        <v>23360.30078125</v>
+      </c>
+      <c r="H191">
+        <v>23716.849609375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B192">
+        <v>77.699996948242188</v>
+      </c>
+      <c r="C192">
+        <v>62.930000305175781</v>
+      </c>
+      <c r="D192">
+        <v>43.099998474121087</v>
+      </c>
+      <c r="E192">
+        <v>3236.919921875</v>
+      </c>
+      <c r="F192">
+        <v>3180.110107421875</v>
+      </c>
+      <c r="G192">
+        <v>23346.490234375</v>
+      </c>
+      <c r="H192">
+        <v>23742.509765625</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B193">
+        <v>77.739997863769531</v>
+      </c>
+      <c r="C193">
+        <v>62.869998931884773</v>
+      </c>
+      <c r="D193">
+        <v>42.900001525878913</v>
+      </c>
+      <c r="E193">
+        <v>3246.590087890625</v>
+      </c>
+      <c r="F193">
+        <v>3159.639892578125</v>
+      </c>
+      <c r="G193">
+        <v>23087.8203125</v>
+      </c>
+      <c r="H193">
+        <v>23311.0703125</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B194">
+        <v>78.589996337890625</v>
+      </c>
+      <c r="C194">
+        <v>63.080001831054688</v>
+      </c>
+      <c r="D194">
+        <v>42.939998626708977</v>
+      </c>
+      <c r="E194">
+        <v>3298.4599609375</v>
+      </c>
+      <c r="F194">
+        <v>3137.06005859375</v>
+      </c>
+      <c r="G194">
+        <v>23204.619140625</v>
+      </c>
+      <c r="H194">
+        <v>23235.419921875</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B195">
+        <v>79.839996337890625</v>
+      </c>
+      <c r="C195">
+        <v>64.029998779296875</v>
+      </c>
+      <c r="D195">
+        <v>43.419998168945313</v>
+      </c>
+      <c r="E195">
+        <v>3351.60009765625</v>
+      </c>
+      <c r="F195">
+        <v>3223.18994140625</v>
+      </c>
+      <c r="G195">
+        <v>23511.619140625</v>
+      </c>
+      <c r="H195">
+        <v>23476.05078125</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B196">
+        <v>79.55999755859375</v>
+      </c>
+      <c r="C196">
+        <v>63.959999084472663</v>
+      </c>
+      <c r="D196">
+        <v>43.389999389648438</v>
+      </c>
+      <c r="E196">
+        <v>3335.469970703125</v>
+      </c>
+      <c r="F196">
+        <v>3214.300048828125</v>
+      </c>
+      <c r="G196">
+        <v>23539.099609375</v>
+      </c>
+      <c r="H196">
+        <v>23275.529296875</v>
       </c>
     </row>
   </sheetData>
